--- a/data-migration/xlsx_1900-/1912_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1912_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC6CA38-0950-4ED5-8B94-F63F672BD332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C6F37A-0C2A-493C-9E5F-B42E6BCC11EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="1287">
   <si>
     <t>Winter</t>
   </si>
@@ -3884,9 +3884,6 @@
     <t>Doz</t>
   </si>
   <si>
-    <t>Direktor</t>
-  </si>
-  <si>
     <t>rusch_f</t>
   </si>
   <si>
@@ -3894,6 +3891,9 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4237,19 +4237,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F153" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="40.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
-    <col min="8" max="8" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1912</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1912</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1912</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1912</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1912</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1912</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1912</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1912</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1912</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1912</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1912</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1912</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1912</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1912</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1912</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1912</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1912</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1912</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1912</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1912</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1912</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1912</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1912</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1912</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1912</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1912</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1912</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1912</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1912</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1912</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1912</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1912</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1912</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1912</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1912</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1912</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1912</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1912</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1912</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1912</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1912</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1912</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1912</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1912</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1912</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1912</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1912</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1912</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1912</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1912</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1912</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1912</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1912</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1912</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1912</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1912</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1912</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1912</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1912</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1912</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1912</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1912</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1912</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1912</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1912</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1912</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1912</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1912</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1912</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1912</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1912</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1912</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1912</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1912</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1912</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1912</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1912</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1912</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1912</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1912</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1912</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1912</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1912</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1912</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1912</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1912</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1912</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1912</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1912</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1912</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1912</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1912</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1912</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1912</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1912</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1912</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1912</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1912</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1912</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1912</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1912</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1912</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1912</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1912</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1912</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1912</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1912</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1912</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1912</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1912</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1912</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1912</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1912</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1912</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1912</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1912</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1912</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1912</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1912</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1912</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1912</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1912</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1912</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1912</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1912</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1912</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1912</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1912</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1912</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1912</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1912</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1912</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1912</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1912</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1912</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1912</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1912</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1912</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1912</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1912</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1912</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1912</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1912</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1912</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1912</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1912</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1912</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1912</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1912</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1912</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1912</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1912</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1912</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1912</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1912</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1912</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1912</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1912</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1912</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1912</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1912</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1912</v>
       </c>
@@ -8509,13 +8509,13 @@
         <v>909</v>
       </c>
       <c r="H162" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I162" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1912</v>
       </c>
@@ -8535,13 +8535,13 @@
         <v>893</v>
       </c>
       <c r="H163" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I163" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1912</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1912</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1912</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1912</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1912</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1912</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1912</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1912</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1912</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1912</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1912</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1912</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1912</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1912</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1912</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1912</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1912</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1912</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1912</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1912</v>
       </c>
@@ -9058,13 +9058,10 @@
         <v>1166</v>
       </c>
       <c r="I183" t="s">
-        <v>1282</v>
-      </c>
-      <c r="J183" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1912</v>
       </c>
@@ -9087,13 +9084,10 @@
         <v>1166</v>
       </c>
       <c r="I184" t="s">
-        <v>1282</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1912</v>
       </c>
@@ -9116,13 +9110,10 @@
         <v>1166</v>
       </c>
       <c r="I185" t="s">
-        <v>1282</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1912</v>
       </c>
@@ -9145,10 +9136,10 @@
         <v>1167</v>
       </c>
       <c r="I186" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1912</v>
       </c>
@@ -9171,10 +9162,10 @@
         <v>1167</v>
       </c>
       <c r="I187" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1912</v>
       </c>
@@ -9197,10 +9188,10 @@
         <v>1167</v>
       </c>
       <c r="I188" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1912</v>
       </c>
@@ -9223,10 +9214,10 @@
         <v>1167</v>
       </c>
       <c r="I189" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1912</v>
       </c>
@@ -9249,10 +9240,10 @@
         <v>1249</v>
       </c>
       <c r="I190" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1912</v>
       </c>
@@ -9275,10 +9266,10 @@
         <v>1249</v>
       </c>
       <c r="I191" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1912</v>
       </c>
@@ -9307,7 +9298,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1912</v>
       </c>
@@ -9336,7 +9327,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1912</v>
       </c>
@@ -9365,7 +9356,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1912</v>
       </c>
@@ -9394,7 +9385,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1912</v>
       </c>
@@ -9420,7 +9411,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1912</v>
       </c>
@@ -9446,7 +9437,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1912</v>
       </c>
@@ -9472,7 +9463,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1912</v>
       </c>
@@ -9498,7 +9489,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1912</v>
       </c>
@@ -9524,7 +9515,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1912</v>
       </c>
@@ -9550,7 +9541,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1912</v>
       </c>
@@ -9576,7 +9567,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1912</v>
       </c>
@@ -9602,7 +9593,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1912</v>
       </c>
@@ -9628,7 +9619,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1912</v>
       </c>
@@ -9654,7 +9645,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1912</v>
       </c>
@@ -9680,7 +9671,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1912</v>
       </c>
@@ -9706,7 +9697,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1912</v>
       </c>
@@ -9732,7 +9723,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1912</v>
       </c>
@@ -9758,7 +9749,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1912</v>
       </c>
@@ -9784,7 +9775,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1912</v>
       </c>
@@ -9810,7 +9801,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1912</v>
       </c>
@@ -9836,7 +9827,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1912</v>
       </c>
@@ -9862,7 +9853,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1912</v>
       </c>
@@ -9888,7 +9879,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1912</v>
       </c>
@@ -9914,7 +9905,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1912</v>
       </c>
@@ -9940,7 +9931,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1912</v>
       </c>
@@ -9966,7 +9957,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1912</v>
       </c>
@@ -9992,7 +9983,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1912</v>
       </c>
@@ -10018,7 +10009,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1912</v>
       </c>
@@ -10044,7 +10035,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1912</v>
       </c>
@@ -10070,7 +10061,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1912</v>
       </c>
@@ -10096,7 +10087,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1912</v>
       </c>
@@ -10122,7 +10113,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1912</v>
       </c>
@@ -10148,7 +10139,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1912</v>
       </c>
@@ -10174,7 +10165,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1912</v>
       </c>
@@ -10200,7 +10191,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1912</v>
       </c>
@@ -10226,7 +10217,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1912</v>
       </c>
@@ -10252,7 +10243,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1912</v>
       </c>
@@ -10278,7 +10269,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1912</v>
       </c>
@@ -10304,7 +10295,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1912</v>
       </c>
@@ -10330,7 +10321,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1912</v>
       </c>
@@ -10356,7 +10347,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1912</v>
       </c>
@@ -10382,7 +10373,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1912</v>
       </c>
@@ -10408,7 +10399,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1912</v>
       </c>
@@ -10434,7 +10425,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1912</v>
       </c>
@@ -10460,7 +10451,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1912</v>
       </c>
@@ -10486,7 +10477,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1912</v>
       </c>
@@ -10512,7 +10503,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1912</v>
       </c>
@@ -10538,7 +10529,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1912</v>
       </c>
@@ -10564,7 +10555,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1912</v>
       </c>
@@ -10593,7 +10584,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1912</v>
       </c>
@@ -10622,7 +10613,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1912</v>
       </c>
@@ -10651,7 +10642,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1912</v>
       </c>
@@ -10677,7 +10668,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1912</v>
       </c>
@@ -10703,7 +10694,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1912</v>
       </c>
@@ -10732,7 +10723,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1912</v>
       </c>
@@ -10758,7 +10749,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1912</v>
       </c>
@@ -10784,7 +10775,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1912</v>
       </c>
@@ -10810,7 +10801,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1912</v>
       </c>
@@ -10836,7 +10827,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1912</v>
       </c>
@@ -10862,7 +10853,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1912</v>
       </c>
@@ -10888,7 +10879,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1912</v>
       </c>
@@ -10914,7 +10905,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1912</v>
       </c>
@@ -10940,7 +10931,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1912</v>
       </c>
@@ -10966,7 +10957,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1912</v>
       </c>
@@ -10992,7 +10983,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1912</v>
       </c>
@@ -11018,7 +11009,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1912</v>
       </c>
@@ -11044,7 +11035,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1912</v>
       </c>
@@ -11070,7 +11061,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1912</v>
       </c>
@@ -11096,7 +11087,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1912</v>
       </c>
@@ -11125,7 +11116,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1912</v>
       </c>
@@ -11151,7 +11142,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1912</v>
       </c>
@@ -11177,7 +11168,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1912</v>
       </c>
@@ -11203,7 +11194,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1912</v>
       </c>
@@ -11229,7 +11220,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1912</v>
       </c>
@@ -11255,7 +11246,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1912</v>
       </c>
@@ -11281,7 +11272,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1912</v>
       </c>
@@ -11307,7 +11298,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1912</v>
       </c>
@@ -11333,7 +11324,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1912</v>
       </c>
@@ -11359,7 +11350,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1912</v>
       </c>
@@ -11385,7 +11376,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1912</v>
       </c>
@@ -11411,7 +11402,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1912</v>
       </c>
@@ -11440,7 +11431,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1912</v>
       </c>
@@ -11466,7 +11457,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1912</v>
       </c>
@@ -11492,7 +11483,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1912</v>
       </c>
@@ -11518,7 +11509,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1912</v>
       </c>
@@ -11544,7 +11535,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1912</v>
       </c>
@@ -11570,7 +11561,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1912</v>
       </c>
@@ -11596,7 +11587,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1912</v>
       </c>
@@ -11622,7 +11613,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1912</v>
       </c>
@@ -11648,7 +11639,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1912</v>
       </c>
@@ -11674,7 +11665,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1912</v>
       </c>
@@ -11700,7 +11691,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1912</v>
       </c>
@@ -11726,7 +11717,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1912</v>
       </c>
@@ -11752,7 +11743,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1912</v>
       </c>
@@ -11778,7 +11769,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1912</v>
       </c>
@@ -11804,7 +11795,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1912</v>
       </c>
@@ -11833,7 +11824,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1912</v>
       </c>
@@ -11859,7 +11850,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1912</v>
       </c>
@@ -11885,7 +11876,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1912</v>
       </c>
@@ -11911,7 +11902,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1912</v>
       </c>
@@ -11937,7 +11928,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1912</v>
       </c>
@@ -11963,7 +11954,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1912</v>
       </c>
@@ -11989,7 +11980,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1912</v>
       </c>
@@ -12015,7 +12006,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1912</v>
       </c>
@@ -12041,7 +12032,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1912</v>
       </c>
@@ -12067,7 +12058,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1912</v>
       </c>
@@ -12093,7 +12084,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1912</v>
       </c>
@@ -12119,7 +12110,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1912</v>
       </c>
@@ -12145,7 +12136,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1912</v>
       </c>
@@ -12171,7 +12162,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1912</v>
       </c>
@@ -12197,7 +12188,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1912</v>
       </c>
@@ -12223,7 +12214,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1912</v>
       </c>
@@ -12249,7 +12240,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1912</v>
       </c>
@@ -12275,7 +12266,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1912</v>
       </c>
@@ -12301,7 +12292,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1912</v>
       </c>
@@ -12327,7 +12318,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1912</v>
       </c>
@@ -12353,7 +12344,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1912</v>
       </c>
@@ -12379,7 +12370,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1912</v>
       </c>
@@ -12405,7 +12396,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1912</v>
       </c>
@@ -12431,7 +12422,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1912</v>
       </c>
@@ -12457,7 +12448,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1912</v>
       </c>
@@ -12483,7 +12474,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1912</v>
       </c>
@@ -12509,7 +12500,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1912</v>
       </c>
@@ -12538,7 +12529,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1912</v>
       </c>
@@ -12564,7 +12555,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1912</v>
       </c>
@@ -12590,7 +12581,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1912</v>
       </c>
@@ -12616,7 +12607,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1912</v>
       </c>
@@ -12642,7 +12633,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1912</v>
       </c>
@@ -12668,7 +12659,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1912</v>
       </c>
@@ -12694,7 +12685,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1912</v>
       </c>
@@ -12720,7 +12711,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1912</v>
       </c>
@@ -12746,7 +12737,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1912</v>
       </c>
@@ -12772,7 +12763,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1912</v>
       </c>
@@ -12798,7 +12789,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1912</v>
       </c>
@@ -12824,7 +12815,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1912</v>
       </c>
@@ -12850,7 +12841,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1912</v>
       </c>
@@ -12876,7 +12867,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1912</v>
       </c>
@@ -12902,7 +12893,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1912</v>
       </c>
@@ -12928,7 +12919,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1912</v>
       </c>
@@ -12954,7 +12945,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1912</v>
       </c>
@@ -12980,7 +12971,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1912</v>
       </c>
@@ -13006,7 +12997,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1912</v>
       </c>
@@ -13032,7 +13023,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1912</v>
       </c>
@@ -13058,7 +13049,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1912</v>
       </c>
@@ -13084,7 +13075,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1912</v>
       </c>
@@ -13110,7 +13101,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1912</v>
       </c>
@@ -13136,7 +13127,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1912</v>
       </c>
@@ -13162,7 +13153,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1912</v>
       </c>
@@ -13188,7 +13179,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1912</v>
       </c>
@@ -13214,7 +13205,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1912</v>
       </c>
@@ -13240,7 +13231,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1912</v>
       </c>
@@ -13269,7 +13260,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1912</v>
       </c>
@@ -13298,7 +13289,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1912</v>
       </c>
@@ -13327,7 +13318,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1912</v>
       </c>
@@ -13356,7 +13347,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1912</v>
       </c>
@@ -13382,7 +13373,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1912</v>
       </c>
@@ -13408,7 +13399,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1912</v>
       </c>
@@ -13428,13 +13419,13 @@
         <v>1079</v>
       </c>
       <c r="H349" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I349" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1912</v>
       </c>
@@ -13454,13 +13445,13 @@
         <v>894</v>
       </c>
       <c r="H350" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I350" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1912</v>
       </c>
@@ -13486,7 +13477,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1912</v>
       </c>
@@ -13506,13 +13497,13 @@
         <v>859</v>
       </c>
       <c r="H352" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I352" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1912</v>
       </c>
@@ -13544,7 +13535,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1912</v>
       </c>
@@ -13573,7 +13564,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1912</v>
       </c>
@@ -13602,7 +13593,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1912</v>
       </c>
@@ -13631,7 +13622,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1912</v>
       </c>
@@ -13657,7 +13648,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1912</v>
       </c>
@@ -13683,7 +13674,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1912</v>
       </c>
@@ -13709,7 +13700,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1912</v>
       </c>
@@ -13735,7 +13726,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1912</v>
       </c>
@@ -13761,7 +13752,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1912</v>
       </c>
@@ -13787,7 +13778,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1912</v>
       </c>
@@ -13813,7 +13804,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1912</v>
       </c>
@@ -13839,7 +13830,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1912</v>
       </c>
@@ -13865,7 +13856,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1912</v>
       </c>
@@ -13891,7 +13882,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1912</v>
       </c>
@@ -13917,7 +13908,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1912</v>
       </c>
@@ -13943,7 +13934,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1912</v>
       </c>
@@ -13969,7 +13960,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1912</v>
       </c>
@@ -13995,7 +13986,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1912</v>
       </c>
@@ -14024,7 +14015,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1912</v>
       </c>
@@ -14053,7 +14044,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1912</v>
       </c>
@@ -14082,7 +14073,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1912</v>
       </c>
@@ -14111,7 +14102,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1912</v>
       </c>
@@ -14140,7 +14131,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1912</v>
       </c>
@@ -14169,7 +14160,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1912</v>
       </c>
@@ -14198,7 +14189,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1912</v>
       </c>
@@ -14227,7 +14218,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1912</v>
       </c>
@@ -14253,7 +14244,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1912</v>
       </c>
@@ -14279,7 +14270,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1912</v>
       </c>
@@ -14305,7 +14296,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1912</v>
       </c>
@@ -14331,7 +14322,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1912</v>
       </c>
@@ -14357,7 +14348,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1912</v>
       </c>
@@ -14383,7 +14374,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1912</v>
       </c>
@@ -14409,7 +14400,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1912</v>
       </c>
@@ -14435,7 +14426,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1912</v>
       </c>
@@ -14461,7 +14452,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1912</v>
       </c>
@@ -14487,7 +14478,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1912</v>
       </c>
@@ -14513,7 +14504,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1912</v>
       </c>
@@ -14539,7 +14530,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1912</v>
       </c>
@@ -14565,7 +14556,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1912</v>
       </c>
@@ -14591,7 +14582,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1912</v>
       </c>
@@ -14617,7 +14608,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1912</v>
       </c>
@@ -14643,7 +14634,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1912</v>
       </c>
@@ -14669,7 +14660,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1912</v>
       </c>
@@ -14695,7 +14686,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1912</v>
       </c>
@@ -14721,7 +14712,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1912</v>
       </c>
@@ -14747,7 +14738,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1912</v>
       </c>
@@ -14773,7 +14764,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1912</v>
       </c>
@@ -14799,7 +14790,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1912</v>
       </c>
@@ -14825,7 +14816,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1912</v>
       </c>
@@ -14851,7 +14842,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1912</v>
       </c>
@@ -14877,7 +14868,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1912</v>
       </c>
@@ -14903,7 +14894,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1912</v>
       </c>
@@ -14929,7 +14920,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1912</v>
       </c>
@@ -14955,7 +14946,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1912</v>
       </c>
@@ -14981,7 +14972,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1912</v>
       </c>
@@ -15007,7 +14998,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1912</v>
       </c>
@@ -15033,7 +15024,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1912</v>
       </c>
@@ -15062,7 +15053,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1912</v>
       </c>
@@ -15088,7 +15079,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1912</v>
       </c>
@@ -15114,7 +15105,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1912</v>
       </c>
@@ -15140,7 +15131,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1912</v>
       </c>
@@ -15166,7 +15157,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1912</v>
       </c>
@@ -15192,7 +15183,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1912</v>
       </c>
@@ -15218,7 +15209,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1912</v>
       </c>
@@ -15244,7 +15235,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1912</v>
       </c>
@@ -15270,7 +15261,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1912</v>
       </c>
@@ -15296,7 +15287,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1912</v>
       </c>
@@ -15322,7 +15313,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1912</v>
       </c>
@@ -15348,7 +15339,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1912</v>
       </c>
@@ -15374,7 +15365,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1912</v>
       </c>
@@ -15400,7 +15391,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1912</v>
       </c>

--- a/data-migration/xlsx_1900-/1912_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1912_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C6F37A-0C2A-493C-9E5F-B42E6BCC11EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B4F09F-C979-4E19-82BD-9E0A73A17DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3743,9 +3743,6 @@
     <t>vonschulthessrechberg_g</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3779,9 +3776,6 @@
     <t>maier_hw</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -3894,6 +3888,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4237,19 +4237,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView tabSelected="1" topLeftCell="D169" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1912</v>
       </c>
@@ -4272,10 +4272,10 @@
         <v>1120</v>
       </c>
       <c r="I1" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1912</v>
       </c>
@@ -4298,13 +4298,13 @@
         <v>1117</v>
       </c>
       <c r="I2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J2" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1912</v>
       </c>
@@ -4327,13 +4327,13 @@
         <v>1117</v>
       </c>
       <c r="I3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J3" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1912</v>
       </c>
@@ -4353,13 +4353,13 @@
         <v>845</v>
       </c>
       <c r="H4" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I4" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1912</v>
       </c>
@@ -4382,13 +4382,13 @@
         <v>1117</v>
       </c>
       <c r="I5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J5" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1912</v>
       </c>
@@ -4408,13 +4408,13 @@
         <v>847</v>
       </c>
       <c r="H6" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I6" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1912</v>
       </c>
@@ -4437,10 +4437,10 @@
         <v>1119</v>
       </c>
       <c r="I7" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1912</v>
       </c>
@@ -4463,10 +4463,10 @@
         <v>1119</v>
       </c>
       <c r="I8" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1912</v>
       </c>
@@ -4489,10 +4489,10 @@
         <v>1119</v>
       </c>
       <c r="I9" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1912</v>
       </c>
@@ -4512,13 +4512,13 @@
         <v>851</v>
       </c>
       <c r="H10" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I10" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1912</v>
       </c>
@@ -4538,13 +4538,13 @@
         <v>852</v>
       </c>
       <c r="H11" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I11" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1912</v>
       </c>
@@ -4567,10 +4567,10 @@
         <v>1119</v>
       </c>
       <c r="I12" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1912</v>
       </c>
@@ -4593,10 +4593,10 @@
         <v>1118</v>
       </c>
       <c r="I13" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1912</v>
       </c>
@@ -4619,10 +4619,10 @@
         <v>1118</v>
       </c>
       <c r="I14" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1912</v>
       </c>
@@ -4645,10 +4645,10 @@
         <v>1118</v>
       </c>
       <c r="I15" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1912</v>
       </c>
@@ -4671,10 +4671,10 @@
         <v>1235</v>
       </c>
       <c r="I16" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1912</v>
       </c>
@@ -4697,10 +4697,10 @@
         <v>1235</v>
       </c>
       <c r="I17" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1912</v>
       </c>
@@ -4723,10 +4723,10 @@
         <v>1235</v>
       </c>
       <c r="I18" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1912</v>
       </c>
@@ -4749,10 +4749,10 @@
         <v>1235</v>
       </c>
       <c r="I19" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1912</v>
       </c>
@@ -4775,10 +4775,10 @@
         <v>1120</v>
       </c>
       <c r="I20" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1912</v>
       </c>
@@ -4798,13 +4798,13 @@
         <v>862</v>
       </c>
       <c r="H21" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I21" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1912</v>
       </c>
@@ -4824,13 +4824,13 @@
         <v>863</v>
       </c>
       <c r="H22" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I22" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1912</v>
       </c>
@@ -4853,10 +4853,10 @@
         <v>1121</v>
       </c>
       <c r="I23" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1912</v>
       </c>
@@ -4879,13 +4879,13 @@
         <v>1117</v>
       </c>
       <c r="I24" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J24" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1912</v>
       </c>
@@ -4905,13 +4905,13 @@
         <v>865</v>
       </c>
       <c r="H25" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I25" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1912</v>
       </c>
@@ -4934,10 +4934,10 @@
         <v>1119</v>
       </c>
       <c r="I26" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1912</v>
       </c>
@@ -4960,10 +4960,10 @@
         <v>1118</v>
       </c>
       <c r="I27" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1912</v>
       </c>
@@ -4986,10 +4986,10 @@
         <v>1120</v>
       </c>
       <c r="I28" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1912</v>
       </c>
@@ -5012,10 +5012,10 @@
         <v>1120</v>
       </c>
       <c r="I29" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1912</v>
       </c>
@@ -5035,13 +5035,13 @@
         <v>869</v>
       </c>
       <c r="H30" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I30" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1912</v>
       </c>
@@ -5064,10 +5064,10 @@
         <v>1122</v>
       </c>
       <c r="I31" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1912</v>
       </c>
@@ -5090,10 +5090,10 @@
         <v>1123</v>
       </c>
       <c r="I32" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1912</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>1230</v>
       </c>
       <c r="F33" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="G33" t="s">
         <v>850</v>
@@ -5116,10 +5116,10 @@
         <v>1123</v>
       </c>
       <c r="I33" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1912</v>
       </c>
@@ -5142,10 +5142,10 @@
         <v>1124</v>
       </c>
       <c r="I34" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1912</v>
       </c>
@@ -5168,10 +5168,10 @@
         <v>1124</v>
       </c>
       <c r="I35" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1912</v>
       </c>
@@ -5194,10 +5194,10 @@
         <v>1124</v>
       </c>
       <c r="I36" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1912</v>
       </c>
@@ -5220,13 +5220,13 @@
         <v>1125</v>
       </c>
       <c r="I37" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J37" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1912</v>
       </c>
@@ -5249,13 +5249,13 @@
         <v>1125</v>
       </c>
       <c r="I38" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J38" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1912</v>
       </c>
@@ -5275,13 +5275,13 @@
         <v>877</v>
       </c>
       <c r="H39" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="I39" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1912</v>
       </c>
@@ -5304,10 +5304,10 @@
         <v>1126</v>
       </c>
       <c r="I40" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1912</v>
       </c>
@@ -5324,16 +5324,16 @@
         <v>464</v>
       </c>
       <c r="G41" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="H41" t="s">
         <v>1124</v>
       </c>
       <c r="I41" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1912</v>
       </c>
@@ -5356,10 +5356,10 @@
         <v>1124</v>
       </c>
       <c r="I42" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1912</v>
       </c>
@@ -5382,10 +5382,10 @@
         <v>1127</v>
       </c>
       <c r="I43" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1912</v>
       </c>
@@ -5408,10 +5408,10 @@
         <v>1122</v>
       </c>
       <c r="I44" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1912</v>
       </c>
@@ -5434,10 +5434,10 @@
         <v>1127</v>
       </c>
       <c r="I45" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1912</v>
       </c>
@@ -5460,10 +5460,10 @@
         <v>1122</v>
       </c>
       <c r="I46" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1912</v>
       </c>
@@ -5486,10 +5486,10 @@
         <v>1127</v>
       </c>
       <c r="I47" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1912</v>
       </c>
@@ -5512,10 +5512,10 @@
         <v>1127</v>
       </c>
       <c r="I48" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1912</v>
       </c>
@@ -5535,13 +5535,13 @@
         <v>886</v>
       </c>
       <c r="H49" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I49" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1912</v>
       </c>
@@ -5564,10 +5564,10 @@
         <v>1128</v>
       </c>
       <c r="I50" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1912</v>
       </c>
@@ -5590,10 +5590,10 @@
         <v>1128</v>
       </c>
       <c r="I51" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1912</v>
       </c>
@@ -5616,13 +5616,13 @@
         <v>1129</v>
       </c>
       <c r="I52" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J52" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1912</v>
       </c>
@@ -5645,13 +5645,13 @@
         <v>1129</v>
       </c>
       <c r="I53" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J53" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1912</v>
       </c>
@@ -5674,10 +5674,10 @@
         <v>1130</v>
       </c>
       <c r="I54" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1912</v>
       </c>
@@ -5700,10 +5700,10 @@
         <v>1130</v>
       </c>
       <c r="I55" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1912</v>
       </c>
@@ -5726,10 +5726,10 @@
         <v>1130</v>
       </c>
       <c r="I56" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1912</v>
       </c>
@@ -5752,10 +5752,10 @@
         <v>1131</v>
       </c>
       <c r="I57" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1912</v>
       </c>
@@ -5775,13 +5775,13 @@
         <v>894</v>
       </c>
       <c r="H58" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I58" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1912</v>
       </c>
@@ -5804,10 +5804,10 @@
         <v>1132</v>
       </c>
       <c r="I59" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1912</v>
       </c>
@@ -5830,10 +5830,10 @@
         <v>1133</v>
       </c>
       <c r="I60" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1912</v>
       </c>
@@ -5853,13 +5853,13 @@
         <v>893</v>
       </c>
       <c r="H61" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I61" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1912</v>
       </c>
@@ -5879,13 +5879,13 @@
         <v>897</v>
       </c>
       <c r="H62" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I62" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1912</v>
       </c>
@@ -5905,13 +5905,13 @@
         <v>898</v>
       </c>
       <c r="H63" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I63" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1912</v>
       </c>
@@ -5931,13 +5931,13 @@
         <v>899</v>
       </c>
       <c r="H64" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I64" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1912</v>
       </c>
@@ -5960,10 +5960,10 @@
         <v>1135</v>
       </c>
       <c r="I65" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1912</v>
       </c>
@@ -5986,10 +5986,10 @@
         <v>1136</v>
       </c>
       <c r="I66" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1912</v>
       </c>
@@ -6009,13 +6009,13 @@
         <v>901</v>
       </c>
       <c r="H67" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I67" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1912</v>
       </c>
@@ -6038,10 +6038,10 @@
         <v>1137</v>
       </c>
       <c r="I68" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1912</v>
       </c>
@@ -6064,10 +6064,10 @@
         <v>1122</v>
       </c>
       <c r="I69" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1912</v>
       </c>
@@ -6090,10 +6090,10 @@
         <v>1123</v>
       </c>
       <c r="I70" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1912</v>
       </c>
@@ -6116,10 +6116,10 @@
         <v>1123</v>
       </c>
       <c r="I71" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1912</v>
       </c>
@@ -6142,13 +6142,13 @@
         <v>1125</v>
       </c>
       <c r="I72" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J72" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1912</v>
       </c>
@@ -6171,10 +6171,10 @@
         <v>1124</v>
       </c>
       <c r="I73" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1912</v>
       </c>
@@ -6197,10 +6197,10 @@
         <v>1128</v>
       </c>
       <c r="I74" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1912</v>
       </c>
@@ -6220,13 +6220,13 @@
         <v>904</v>
       </c>
       <c r="H75" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I75" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1912</v>
       </c>
@@ -6249,10 +6249,10 @@
         <v>1132</v>
       </c>
       <c r="I76" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1912</v>
       </c>
@@ -6275,10 +6275,10 @@
         <v>1133</v>
       </c>
       <c r="I77" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1912</v>
       </c>
@@ -6301,13 +6301,13 @@
         <v>1129</v>
       </c>
       <c r="I78" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J78" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1912</v>
       </c>
@@ -6330,13 +6330,13 @@
         <v>1129</v>
       </c>
       <c r="I79" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J79" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1912</v>
       </c>
@@ -6359,10 +6359,10 @@
         <v>1130</v>
       </c>
       <c r="I80" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1912</v>
       </c>
@@ -6385,10 +6385,10 @@
         <v>1131</v>
       </c>
       <c r="I81" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1912</v>
       </c>
@@ -6408,13 +6408,13 @@
         <v>909</v>
       </c>
       <c r="H82" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I82" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1912</v>
       </c>
@@ -6434,13 +6434,13 @@
         <v>910</v>
       </c>
       <c r="H83" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I83" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1912</v>
       </c>
@@ -6463,10 +6463,10 @@
         <v>1138</v>
       </c>
       <c r="I84" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1912</v>
       </c>
@@ -6489,10 +6489,10 @@
         <v>1138</v>
       </c>
       <c r="I85" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1912</v>
       </c>
@@ -6512,13 +6512,13 @@
         <v>913</v>
       </c>
       <c r="H86" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I86" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1912</v>
       </c>
@@ -6541,10 +6541,10 @@
         <v>1139</v>
       </c>
       <c r="I87" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1912</v>
       </c>
@@ -6567,10 +6567,10 @@
         <v>1140</v>
       </c>
       <c r="I88" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1912</v>
       </c>
@@ -6593,10 +6593,10 @@
         <v>1141</v>
       </c>
       <c r="I89" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1912</v>
       </c>
@@ -6622,10 +6622,10 @@
         <v>1141</v>
       </c>
       <c r="I90" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1912</v>
       </c>
@@ -6648,10 +6648,10 @@
         <v>1141</v>
       </c>
       <c r="I91" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1912</v>
       </c>
@@ -6677,10 +6677,10 @@
         <v>1142</v>
       </c>
       <c r="I92" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1912</v>
       </c>
@@ -6703,10 +6703,10 @@
         <v>1142</v>
       </c>
       <c r="I93" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1912</v>
       </c>
@@ -6732,10 +6732,10 @@
         <v>1142</v>
       </c>
       <c r="I94" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1912</v>
       </c>
@@ -6758,10 +6758,10 @@
         <v>1143</v>
       </c>
       <c r="I95" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1912</v>
       </c>
@@ -6787,10 +6787,10 @@
         <v>1144</v>
       </c>
       <c r="I96" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1912</v>
       </c>
@@ -6810,13 +6810,13 @@
         <v>924</v>
       </c>
       <c r="H97" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I97" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1912</v>
       </c>
@@ -6836,13 +6836,13 @@
         <v>918</v>
       </c>
       <c r="H98" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I98" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1912</v>
       </c>
@@ -6865,10 +6865,10 @@
         <v>1145</v>
       </c>
       <c r="I99" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1912</v>
       </c>
@@ -6891,10 +6891,10 @@
         <v>1145</v>
       </c>
       <c r="I100" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1912</v>
       </c>
@@ -6917,10 +6917,10 @@
         <v>1145</v>
       </c>
       <c r="I101" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1912</v>
       </c>
@@ -6943,10 +6943,10 @@
         <v>1145</v>
       </c>
       <c r="I102" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1912</v>
       </c>
@@ -6969,10 +6969,10 @@
         <v>1145</v>
       </c>
       <c r="I103" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1912</v>
       </c>
@@ -6995,10 +6995,10 @@
         <v>1146</v>
       </c>
       <c r="I104" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1912</v>
       </c>
@@ -7018,16 +7018,16 @@
         <v>930</v>
       </c>
       <c r="H105" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I105" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J105" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1912</v>
       </c>
@@ -7047,16 +7047,16 @@
         <v>931</v>
       </c>
       <c r="H106" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I106" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J106" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1912</v>
       </c>
@@ -7076,16 +7076,16 @@
         <v>932</v>
       </c>
       <c r="H107" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I107" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J107" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1912</v>
       </c>
@@ -7108,10 +7108,10 @@
         <v>1147</v>
       </c>
       <c r="I108" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1912</v>
       </c>
@@ -7134,10 +7134,10 @@
         <v>1147</v>
       </c>
       <c r="I109" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1912</v>
       </c>
@@ -7160,10 +7160,10 @@
         <v>1147</v>
       </c>
       <c r="I110" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1912</v>
       </c>
@@ -7186,10 +7186,10 @@
         <v>1147</v>
       </c>
       <c r="I111" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1912</v>
       </c>
@@ -7212,10 +7212,10 @@
         <v>1147</v>
       </c>
       <c r="I112" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1912</v>
       </c>
@@ -7238,10 +7238,10 @@
         <v>1147</v>
       </c>
       <c r="I113" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1912</v>
       </c>
@@ -7261,13 +7261,13 @@
         <v>938</v>
       </c>
       <c r="H114" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I114" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1912</v>
       </c>
@@ -7287,13 +7287,13 @@
         <v>939</v>
       </c>
       <c r="H115" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I115" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1912</v>
       </c>
@@ -7316,10 +7316,10 @@
         <v>1148</v>
       </c>
       <c r="I116" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1912</v>
       </c>
@@ -7342,10 +7342,10 @@
         <v>1148</v>
       </c>
       <c r="I117" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1912</v>
       </c>
@@ -7368,10 +7368,10 @@
         <v>1148</v>
       </c>
       <c r="I118" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1912</v>
       </c>
@@ -7394,10 +7394,10 @@
         <v>1148</v>
       </c>
       <c r="I119" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1912</v>
       </c>
@@ -7417,13 +7417,13 @@
         <v>943</v>
       </c>
       <c r="H120" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I120" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1912</v>
       </c>
@@ -7443,13 +7443,13 @@
         <v>944</v>
       </c>
       <c r="H121" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I121" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1912</v>
       </c>
@@ -7469,13 +7469,13 @@
         <v>929</v>
       </c>
       <c r="H122" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I122" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1912</v>
       </c>
@@ -7495,13 +7495,13 @@
         <v>859</v>
       </c>
       <c r="H123" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I123" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1912</v>
       </c>
@@ -7521,13 +7521,13 @@
         <v>929</v>
       </c>
       <c r="H124" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I124" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1912</v>
       </c>
@@ -7550,10 +7550,10 @@
         <v>1149</v>
       </c>
       <c r="I125" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1912</v>
       </c>
@@ -7576,10 +7576,10 @@
         <v>1149</v>
       </c>
       <c r="I126" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1912</v>
       </c>
@@ -7602,10 +7602,10 @@
         <v>1150</v>
       </c>
       <c r="I127" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1912</v>
       </c>
@@ -7625,13 +7625,13 @@
         <v>859</v>
       </c>
       <c r="H128" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I128" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1912</v>
       </c>
@@ -7651,13 +7651,13 @@
         <v>929</v>
       </c>
       <c r="H129" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I129" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1912</v>
       </c>
@@ -7677,13 +7677,13 @@
         <v>948</v>
       </c>
       <c r="H130" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I130" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1912</v>
       </c>
@@ -7703,13 +7703,13 @@
         <v>949</v>
       </c>
       <c r="H131" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I131" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1912</v>
       </c>
@@ -7729,13 +7729,13 @@
         <v>950</v>
       </c>
       <c r="H132" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I132" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1912</v>
       </c>
@@ -7755,13 +7755,13 @@
         <v>859</v>
       </c>
       <c r="H133" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I133" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1912</v>
       </c>
@@ -7781,13 +7781,13 @@
         <v>859</v>
       </c>
       <c r="H134" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I134" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1912</v>
       </c>
@@ -7810,10 +7810,10 @@
         <v>1152</v>
       </c>
       <c r="I135" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1912</v>
       </c>
@@ -7836,10 +7836,10 @@
         <v>1152</v>
       </c>
       <c r="I136" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1912</v>
       </c>
@@ -7859,13 +7859,13 @@
         <v>859</v>
       </c>
       <c r="H137" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I137" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1912</v>
       </c>
@@ -7888,10 +7888,10 @@
         <v>1153</v>
       </c>
       <c r="I138" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1912</v>
       </c>
@@ -7914,10 +7914,10 @@
         <v>1153</v>
       </c>
       <c r="I139" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1912</v>
       </c>
@@ -7940,10 +7940,10 @@
         <v>1153</v>
       </c>
       <c r="I140" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1912</v>
       </c>
@@ -7963,13 +7963,13 @@
         <v>955</v>
       </c>
       <c r="H141" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I141" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1912</v>
       </c>
@@ -7989,13 +7989,13 @@
         <v>956</v>
       </c>
       <c r="H142" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I142" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1912</v>
       </c>
@@ -8018,10 +8018,10 @@
         <v>1154</v>
       </c>
       <c r="I143" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1912</v>
       </c>
@@ -8044,10 +8044,10 @@
         <v>1154</v>
       </c>
       <c r="I144" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1912</v>
       </c>
@@ -8070,10 +8070,10 @@
         <v>1155</v>
       </c>
       <c r="I145" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1912</v>
       </c>
@@ -8096,10 +8096,10 @@
         <v>1155</v>
       </c>
       <c r="I146" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1912</v>
       </c>
@@ -8119,13 +8119,13 @@
         <v>859</v>
       </c>
       <c r="H147" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I147" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1912</v>
       </c>
@@ -8145,13 +8145,13 @@
         <v>959</v>
       </c>
       <c r="H148" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I148" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1912</v>
       </c>
@@ -8171,13 +8171,13 @@
         <v>859</v>
       </c>
       <c r="H149" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I149" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1912</v>
       </c>
@@ -8200,10 +8200,10 @@
         <v>1156</v>
       </c>
       <c r="I150" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1912</v>
       </c>
@@ -8226,10 +8226,10 @@
         <v>1157</v>
       </c>
       <c r="I151" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1912</v>
       </c>
@@ -8252,10 +8252,10 @@
         <v>1157</v>
       </c>
       <c r="I152" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1912</v>
       </c>
@@ -8278,10 +8278,10 @@
         <v>1151</v>
       </c>
       <c r="I153" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1912</v>
       </c>
@@ -8304,10 +8304,10 @@
         <v>1151</v>
       </c>
       <c r="I154" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1912</v>
       </c>
@@ -8330,10 +8330,10 @@
         <v>1158</v>
       </c>
       <c r="I155" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1912</v>
       </c>
@@ -8356,10 +8356,10 @@
         <v>1159</v>
       </c>
       <c r="I156" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1912</v>
       </c>
@@ -8382,10 +8382,10 @@
         <v>1159</v>
       </c>
       <c r="I157" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1912</v>
       </c>
@@ -8408,10 +8408,10 @@
         <v>1160</v>
       </c>
       <c r="I158" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1912</v>
       </c>
@@ -8434,10 +8434,10 @@
         <v>1160</v>
       </c>
       <c r="I159" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1912</v>
       </c>
@@ -8460,10 +8460,10 @@
         <v>1161</v>
       </c>
       <c r="I160" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1912</v>
       </c>
@@ -8486,10 +8486,10 @@
         <v>1161</v>
       </c>
       <c r="I161" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1912</v>
       </c>
@@ -8509,13 +8509,13 @@
         <v>909</v>
       </c>
       <c r="H162" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I162" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1912</v>
       </c>
@@ -8535,13 +8535,13 @@
         <v>893</v>
       </c>
       <c r="H163" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I163" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1912</v>
       </c>
@@ -8564,10 +8564,10 @@
         <v>1162</v>
       </c>
       <c r="I164" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1912</v>
       </c>
@@ -8590,10 +8590,10 @@
         <v>1162</v>
       </c>
       <c r="I165" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1912</v>
       </c>
@@ -8613,13 +8613,13 @@
         <v>951</v>
       </c>
       <c r="H166" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I166" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1912</v>
       </c>
@@ -8639,13 +8639,13 @@
         <v>958</v>
       </c>
       <c r="H167" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I167" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1912</v>
       </c>
@@ -8665,13 +8665,13 @@
         <v>968</v>
       </c>
       <c r="H168" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I168" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1912</v>
       </c>
@@ -8694,10 +8694,10 @@
         <v>1163</v>
       </c>
       <c r="I169" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1912</v>
       </c>
@@ -8720,10 +8720,10 @@
         <v>1163</v>
       </c>
       <c r="I170" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1912</v>
       </c>
@@ -8743,13 +8743,13 @@
         <v>894</v>
       </c>
       <c r="H171" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I171" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1912</v>
       </c>
@@ -8772,10 +8772,10 @@
         <v>1164</v>
       </c>
       <c r="I172" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1912</v>
       </c>
@@ -8798,10 +8798,10 @@
         <v>1164</v>
       </c>
       <c r="I173" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1912</v>
       </c>
@@ -8824,10 +8824,10 @@
         <v>1164</v>
       </c>
       <c r="I174" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1912</v>
       </c>
@@ -8850,10 +8850,10 @@
         <v>1164</v>
       </c>
       <c r="I175" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1912</v>
       </c>
@@ -8876,10 +8876,10 @@
         <v>1164</v>
       </c>
       <c r="I176" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1912</v>
       </c>
@@ -8902,10 +8902,10 @@
         <v>1164</v>
       </c>
       <c r="I177" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1912</v>
       </c>
@@ -8928,10 +8928,10 @@
         <v>1165</v>
       </c>
       <c r="I178" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1912</v>
       </c>
@@ -8951,13 +8951,13 @@
         <v>974</v>
       </c>
       <c r="H179" t="s">
-        <v>1248</v>
+        <v>1286</v>
       </c>
       <c r="I179" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1912</v>
       </c>
@@ -8977,13 +8977,13 @@
         <v>975</v>
       </c>
       <c r="H180" t="s">
-        <v>1248</v>
+        <v>1286</v>
       </c>
       <c r="I180" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1912</v>
       </c>
@@ -9003,13 +9003,13 @@
         <v>976</v>
       </c>
       <c r="H181" t="s">
-        <v>1248</v>
+        <v>1286</v>
       </c>
       <c r="I181" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1912</v>
       </c>
@@ -9029,13 +9029,13 @@
         <v>977</v>
       </c>
       <c r="H182" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I182" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1912</v>
       </c>
@@ -9058,10 +9058,10 @@
         <v>1166</v>
       </c>
       <c r="I183" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1912</v>
       </c>
@@ -9084,10 +9084,10 @@
         <v>1166</v>
       </c>
       <c r="I184" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1912</v>
       </c>
@@ -9110,10 +9110,10 @@
         <v>1166</v>
       </c>
       <c r="I185" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1912</v>
       </c>
@@ -9136,10 +9136,10 @@
         <v>1167</v>
       </c>
       <c r="I186" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1912</v>
       </c>
@@ -9162,10 +9162,10 @@
         <v>1167</v>
       </c>
       <c r="I187" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1912</v>
       </c>
@@ -9188,10 +9188,10 @@
         <v>1167</v>
       </c>
       <c r="I188" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1912</v>
       </c>
@@ -9214,10 +9214,10 @@
         <v>1167</v>
       </c>
       <c r="I189" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1912</v>
       </c>
@@ -9237,13 +9237,13 @@
         <v>983</v>
       </c>
       <c r="H190" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I190" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1912</v>
       </c>
@@ -9263,13 +9263,13 @@
         <v>984</v>
       </c>
       <c r="H191" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I191" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1912</v>
       </c>
@@ -9292,13 +9292,13 @@
         <v>1168</v>
       </c>
       <c r="I192" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J192" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1912</v>
       </c>
@@ -9321,13 +9321,13 @@
         <v>1168</v>
       </c>
       <c r="I193" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J193" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1912</v>
       </c>
@@ -9350,13 +9350,13 @@
         <v>1168</v>
       </c>
       <c r="I194" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J194" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1912</v>
       </c>
@@ -9379,13 +9379,13 @@
         <v>1168</v>
       </c>
       <c r="I195" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J195" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1912</v>
       </c>
@@ -9408,10 +9408,10 @@
         <v>1169</v>
       </c>
       <c r="I196" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1912</v>
       </c>
@@ -9434,10 +9434,10 @@
         <v>1169</v>
       </c>
       <c r="I197" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1912</v>
       </c>
@@ -9460,10 +9460,10 @@
         <v>1169</v>
       </c>
       <c r="I198" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1912</v>
       </c>
@@ -9486,10 +9486,10 @@
         <v>1170</v>
       </c>
       <c r="I199" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1912</v>
       </c>
@@ -9512,10 +9512,10 @@
         <v>1170</v>
       </c>
       <c r="I200" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1912</v>
       </c>
@@ -9538,10 +9538,10 @@
         <v>1170</v>
       </c>
       <c r="I201" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1912</v>
       </c>
@@ -9564,10 +9564,10 @@
         <v>1171</v>
       </c>
       <c r="I202" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1912</v>
       </c>
@@ -9590,10 +9590,10 @@
         <v>1171</v>
       </c>
       <c r="I203" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1912</v>
       </c>
@@ -9616,10 +9616,10 @@
         <v>1171</v>
       </c>
       <c r="I204" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1912</v>
       </c>
@@ -9642,10 +9642,10 @@
         <v>1171</v>
       </c>
       <c r="I205" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1912</v>
       </c>
@@ -9668,10 +9668,10 @@
         <v>1171</v>
       </c>
       <c r="I206" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1912</v>
       </c>
@@ -9694,10 +9694,10 @@
         <v>1172</v>
       </c>
       <c r="I207" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1912</v>
       </c>
@@ -9720,10 +9720,10 @@
         <v>1172</v>
       </c>
       <c r="I208" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1912</v>
       </c>
@@ -9746,10 +9746,10 @@
         <v>1172</v>
       </c>
       <c r="I209" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1912</v>
       </c>
@@ -9772,10 +9772,10 @@
         <v>1172</v>
       </c>
       <c r="I210" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1912</v>
       </c>
@@ -9798,10 +9798,10 @@
         <v>1173</v>
       </c>
       <c r="I211" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1912</v>
       </c>
@@ -9824,10 +9824,10 @@
         <v>1173</v>
       </c>
       <c r="I212" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1912</v>
       </c>
@@ -9850,10 +9850,10 @@
         <v>1174</v>
       </c>
       <c r="I213" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1912</v>
       </c>
@@ -9876,10 +9876,10 @@
         <v>1174</v>
       </c>
       <c r="I214" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1912</v>
       </c>
@@ -9902,10 +9902,10 @@
         <v>1174</v>
       </c>
       <c r="I215" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1912</v>
       </c>
@@ -9928,10 +9928,10 @@
         <v>1175</v>
       </c>
       <c r="I216" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1912</v>
       </c>
@@ -9954,10 +9954,10 @@
         <v>1176</v>
       </c>
       <c r="I217" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1912</v>
       </c>
@@ -9980,10 +9980,10 @@
         <v>1175</v>
       </c>
       <c r="I218" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1912</v>
       </c>
@@ -10006,10 +10006,10 @@
         <v>1176</v>
       </c>
       <c r="I219" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1912</v>
       </c>
@@ -10032,10 +10032,10 @@
         <v>1175</v>
       </c>
       <c r="I220" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1912</v>
       </c>
@@ -10058,10 +10058,10 @@
         <v>1176</v>
       </c>
       <c r="I221" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1912</v>
       </c>
@@ -10084,10 +10084,10 @@
         <v>1176</v>
       </c>
       <c r="I222" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1912</v>
       </c>
@@ -10110,10 +10110,10 @@
         <v>1132</v>
       </c>
       <c r="I223" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1912</v>
       </c>
@@ -10136,10 +10136,10 @@
         <v>1132</v>
       </c>
       <c r="I224" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1912</v>
       </c>
@@ -10162,10 +10162,10 @@
         <v>1132</v>
       </c>
       <c r="I225" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1912</v>
       </c>
@@ -10185,13 +10185,13 @@
         <v>1012</v>
       </c>
       <c r="H226" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I226" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1912</v>
       </c>
@@ -10214,10 +10214,10 @@
         <v>1132</v>
       </c>
       <c r="I227" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1912</v>
       </c>
@@ -10240,10 +10240,10 @@
         <v>1176</v>
       </c>
       <c r="I228" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1912</v>
       </c>
@@ -10263,13 +10263,13 @@
         <v>1015</v>
       </c>
       <c r="H229" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I229" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1912</v>
       </c>
@@ -10289,13 +10289,13 @@
         <v>889</v>
       </c>
       <c r="H230" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I230" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1912</v>
       </c>
@@ -10318,10 +10318,10 @@
         <v>1178</v>
       </c>
       <c r="I231" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1912</v>
       </c>
@@ -10344,10 +10344,10 @@
         <v>1178</v>
       </c>
       <c r="I232" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1912</v>
       </c>
@@ -10370,10 +10370,10 @@
         <v>1176</v>
       </c>
       <c r="I233" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1912</v>
       </c>
@@ -10396,10 +10396,10 @@
         <v>1179</v>
       </c>
       <c r="I234" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1912</v>
       </c>
@@ -10422,10 +10422,10 @@
         <v>1179</v>
       </c>
       <c r="I235" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1912</v>
       </c>
@@ -10448,10 +10448,10 @@
         <v>1179</v>
       </c>
       <c r="I236" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1912</v>
       </c>
@@ -10474,10 +10474,10 @@
         <v>1179</v>
       </c>
       <c r="I237" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1912</v>
       </c>
@@ -10500,10 +10500,10 @@
         <v>1179</v>
       </c>
       <c r="I238" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1912</v>
       </c>
@@ -10526,10 +10526,10 @@
         <v>1179</v>
       </c>
       <c r="I239" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1912</v>
       </c>
@@ -10552,10 +10552,10 @@
         <v>1117</v>
       </c>
       <c r="I240" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1912</v>
       </c>
@@ -10578,13 +10578,13 @@
         <v>1180</v>
       </c>
       <c r="I241" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J241" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1912</v>
       </c>
@@ -10607,13 +10607,13 @@
         <v>1180</v>
       </c>
       <c r="I242" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J242" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1912</v>
       </c>
@@ -10636,13 +10636,13 @@
         <v>1180</v>
       </c>
       <c r="I243" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J243" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1912</v>
       </c>
@@ -10665,10 +10665,10 @@
         <v>1181</v>
       </c>
       <c r="I244" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1912</v>
       </c>
@@ -10691,10 +10691,10 @@
         <v>1181</v>
       </c>
       <c r="I245" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1912</v>
       </c>
@@ -10717,13 +10717,13 @@
         <v>1180</v>
       </c>
       <c r="I246" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J246" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1912</v>
       </c>
@@ -10746,10 +10746,10 @@
         <v>1182</v>
       </c>
       <c r="I247" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1912</v>
       </c>
@@ -10772,10 +10772,10 @@
         <v>1182</v>
       </c>
       <c r="I248" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1912</v>
       </c>
@@ -10795,13 +10795,13 @@
         <v>1028</v>
       </c>
       <c r="H249" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I249" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1912</v>
       </c>
@@ -10821,13 +10821,13 @@
         <v>1029</v>
       </c>
       <c r="H250" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I250" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1912</v>
       </c>
@@ -10847,13 +10847,13 @@
         <v>1030</v>
       </c>
       <c r="H251" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I251" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1912</v>
       </c>
@@ -10876,10 +10876,10 @@
         <v>1183</v>
       </c>
       <c r="I252" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1912</v>
       </c>
@@ -10899,13 +10899,13 @@
         <v>1031</v>
       </c>
       <c r="H253" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I253" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1912</v>
       </c>
@@ -10925,13 +10925,13 @@
         <v>1032</v>
       </c>
       <c r="H254" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I254" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1912</v>
       </c>
@@ -10951,13 +10951,13 @@
         <v>1033</v>
       </c>
       <c r="H255" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I255" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1912</v>
       </c>
@@ -10980,10 +10980,10 @@
         <v>1183</v>
       </c>
       <c r="I256" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1912</v>
       </c>
@@ -11006,10 +11006,10 @@
         <v>1183</v>
       </c>
       <c r="I257" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1912</v>
       </c>
@@ -11032,10 +11032,10 @@
         <v>1183</v>
       </c>
       <c r="I258" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1912</v>
       </c>
@@ -11058,10 +11058,10 @@
         <v>1183</v>
       </c>
       <c r="I259" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1912</v>
       </c>
@@ -11081,13 +11081,13 @@
         <v>1038</v>
       </c>
       <c r="H260" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I260" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1912</v>
       </c>
@@ -11110,13 +11110,13 @@
         <v>1180</v>
       </c>
       <c r="I261" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J261" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1912</v>
       </c>
@@ -11139,10 +11139,10 @@
         <v>1134</v>
       </c>
       <c r="I262" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1912</v>
       </c>
@@ -11165,10 +11165,10 @@
         <v>1134</v>
       </c>
       <c r="I263" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1912</v>
       </c>
@@ -11191,10 +11191,10 @@
         <v>1134</v>
       </c>
       <c r="I264" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1912</v>
       </c>
@@ -11214,13 +11214,13 @@
         <v>1042</v>
       </c>
       <c r="H265" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I265" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1912</v>
       </c>
@@ -11240,13 +11240,13 @@
         <v>929</v>
       </c>
       <c r="H266" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I266" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1912</v>
       </c>
@@ -11266,13 +11266,13 @@
         <v>1043</v>
       </c>
       <c r="H267" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I267" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1912</v>
       </c>
@@ -11292,13 +11292,13 @@
         <v>1044</v>
       </c>
       <c r="H268" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I268" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1912</v>
       </c>
@@ -11318,13 +11318,13 @@
         <v>849</v>
       </c>
       <c r="H269" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I269" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1912</v>
       </c>
@@ -11347,10 +11347,10 @@
         <v>1185</v>
       </c>
       <c r="I270" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1912</v>
       </c>
@@ -11373,10 +11373,10 @@
         <v>1185</v>
       </c>
       <c r="I271" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1912</v>
       </c>
@@ -11396,13 +11396,13 @@
         <v>900</v>
       </c>
       <c r="H272" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I272" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1912</v>
       </c>
@@ -11428,10 +11428,10 @@
         <v>1185</v>
       </c>
       <c r="I273" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1912</v>
       </c>
@@ -11454,10 +11454,10 @@
         <v>1177</v>
       </c>
       <c r="I274" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1912</v>
       </c>
@@ -11477,13 +11477,13 @@
         <v>1030</v>
       </c>
       <c r="H275" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I275" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1912</v>
       </c>
@@ -11506,10 +11506,10 @@
         <v>1186</v>
       </c>
       <c r="I276" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1912</v>
       </c>
@@ -11529,13 +11529,13 @@
         <v>1047</v>
       </c>
       <c r="H277" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I277" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1912</v>
       </c>
@@ -11555,13 +11555,13 @@
         <v>929</v>
       </c>
       <c r="H278" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I278" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1912</v>
       </c>
@@ -11584,10 +11584,10 @@
         <v>1186</v>
       </c>
       <c r="I279" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1912</v>
       </c>
@@ -11610,10 +11610,10 @@
         <v>1187</v>
       </c>
       <c r="I280" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1912</v>
       </c>
@@ -11636,10 +11636,10 @@
         <v>1134</v>
       </c>
       <c r="I281" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1912</v>
       </c>
@@ -11659,13 +11659,13 @@
         <v>1049</v>
       </c>
       <c r="H282" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I282" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1912</v>
       </c>
@@ -11688,10 +11688,10 @@
         <v>1185</v>
       </c>
       <c r="I283" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1912</v>
       </c>
@@ -11711,13 +11711,13 @@
         <v>1050</v>
       </c>
       <c r="H284" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I284" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1912</v>
       </c>
@@ -11737,13 +11737,13 @@
         <v>947</v>
       </c>
       <c r="H285" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I285" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1912</v>
       </c>
@@ -11766,10 +11766,10 @@
         <v>1188</v>
       </c>
       <c r="I286" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1912</v>
       </c>
@@ -11792,10 +11792,10 @@
         <v>1188</v>
       </c>
       <c r="I287" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1912</v>
       </c>
@@ -11821,10 +11821,10 @@
         <v>1188</v>
       </c>
       <c r="I288" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1912</v>
       </c>
@@ -11844,13 +11844,13 @@
         <v>937</v>
       </c>
       <c r="H289" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I289" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1912</v>
       </c>
@@ -11870,13 +11870,13 @@
         <v>900</v>
       </c>
       <c r="H290" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I290" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1912</v>
       </c>
@@ -11899,10 +11899,10 @@
         <v>1188</v>
       </c>
       <c r="I291" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1912</v>
       </c>
@@ -11925,10 +11925,10 @@
         <v>1188</v>
       </c>
       <c r="I292" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1912</v>
       </c>
@@ -11951,10 +11951,10 @@
         <v>1189</v>
       </c>
       <c r="I293" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1912</v>
       </c>
@@ -11977,10 +11977,10 @@
         <v>1190</v>
       </c>
       <c r="I294" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1912</v>
       </c>
@@ -12003,10 +12003,10 @@
         <v>1191</v>
       </c>
       <c r="I295" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1912</v>
       </c>
@@ -12029,10 +12029,10 @@
         <v>1192</v>
       </c>
       <c r="I296" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1912</v>
       </c>
@@ -12055,10 +12055,10 @@
         <v>1192</v>
       </c>
       <c r="I297" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1912</v>
       </c>
@@ -12081,10 +12081,10 @@
         <v>1192</v>
       </c>
       <c r="I298" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1912</v>
       </c>
@@ -12107,10 +12107,10 @@
         <v>1193</v>
       </c>
       <c r="I299" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1912</v>
       </c>
@@ -12133,10 +12133,10 @@
         <v>1189</v>
       </c>
       <c r="I300" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1912</v>
       </c>
@@ -12159,10 +12159,10 @@
         <v>1140</v>
       </c>
       <c r="I301" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1912</v>
       </c>
@@ -12185,10 +12185,10 @@
         <v>1189</v>
       </c>
       <c r="I302" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1912</v>
       </c>
@@ -12211,10 +12211,10 @@
         <v>1189</v>
       </c>
       <c r="I303" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1912</v>
       </c>
@@ -12237,10 +12237,10 @@
         <v>1189</v>
       </c>
       <c r="I304" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1912</v>
       </c>
@@ -12263,10 +12263,10 @@
         <v>1192</v>
       </c>
       <c r="I305" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1912</v>
       </c>
@@ -12289,10 +12289,10 @@
         <v>1194</v>
       </c>
       <c r="I306" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1912</v>
       </c>
@@ -12312,13 +12312,13 @@
         <v>1062</v>
       </c>
       <c r="H307" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I307" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1912</v>
       </c>
@@ -12341,10 +12341,10 @@
         <v>1194</v>
       </c>
       <c r="I308" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1912</v>
       </c>
@@ -12367,10 +12367,10 @@
         <v>1195</v>
       </c>
       <c r="I309" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1912</v>
       </c>
@@ -12390,13 +12390,13 @@
         <v>854</v>
       </c>
       <c r="H310" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I310" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1912</v>
       </c>
@@ -12416,13 +12416,13 @@
         <v>843</v>
       </c>
       <c r="H311" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I311" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1912</v>
       </c>
@@ -12445,10 +12445,10 @@
         <v>1194</v>
       </c>
       <c r="I312" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1912</v>
       </c>
@@ -12468,13 +12468,13 @@
         <v>1064</v>
       </c>
       <c r="H313" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I313" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1912</v>
       </c>
@@ -12494,13 +12494,13 @@
         <v>905</v>
       </c>
       <c r="H314" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I314" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1912</v>
       </c>
@@ -12523,13 +12523,13 @@
         <v>1016</v>
       </c>
       <c r="H315" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I315" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1912</v>
       </c>
@@ -12552,10 +12552,10 @@
         <v>1196</v>
       </c>
       <c r="I316" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1912</v>
       </c>
@@ -12578,10 +12578,10 @@
         <v>1197</v>
       </c>
       <c r="I317" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1912</v>
       </c>
@@ -12604,10 +12604,10 @@
         <v>1197</v>
       </c>
       <c r="I318" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1912</v>
       </c>
@@ -12627,13 +12627,13 @@
         <v>902</v>
       </c>
       <c r="H319" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I319" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1912</v>
       </c>
@@ -12653,13 +12653,13 @@
         <v>1065</v>
       </c>
       <c r="H320" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I320" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1912</v>
       </c>
@@ -12682,10 +12682,10 @@
         <v>1194</v>
       </c>
       <c r="I321" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1912</v>
       </c>
@@ -12705,13 +12705,13 @@
         <v>1067</v>
       </c>
       <c r="H322" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I322" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1912</v>
       </c>
@@ -12734,10 +12734,10 @@
         <v>1198</v>
       </c>
       <c r="I323" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1912</v>
       </c>
@@ -12757,13 +12757,13 @@
         <v>901</v>
       </c>
       <c r="H324" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I324" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1912</v>
       </c>
@@ -12786,10 +12786,10 @@
         <v>1198</v>
       </c>
       <c r="I325" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1912</v>
       </c>
@@ -12812,10 +12812,10 @@
         <v>1199</v>
       </c>
       <c r="I326" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1912</v>
       </c>
@@ -12838,10 +12838,10 @@
         <v>1199</v>
       </c>
       <c r="I327" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1912</v>
       </c>
@@ -12864,10 +12864,10 @@
         <v>1199</v>
       </c>
       <c r="I328" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1912</v>
       </c>
@@ -12890,10 +12890,10 @@
         <v>1200</v>
       </c>
       <c r="I329" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1912</v>
       </c>
@@ -12916,10 +12916,10 @@
         <v>1200</v>
       </c>
       <c r="I330" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1912</v>
       </c>
@@ -12942,10 +12942,10 @@
         <v>1201</v>
       </c>
       <c r="I331" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1912</v>
       </c>
@@ -12968,10 +12968,10 @@
         <v>1202</v>
       </c>
       <c r="I332" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1912</v>
       </c>
@@ -12994,10 +12994,10 @@
         <v>1202</v>
       </c>
       <c r="I333" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1912</v>
       </c>
@@ -13020,10 +13020,10 @@
         <v>1202</v>
       </c>
       <c r="I334" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1912</v>
       </c>
@@ -13046,10 +13046,10 @@
         <v>1202</v>
       </c>
       <c r="I335" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1912</v>
       </c>
@@ -13072,10 +13072,10 @@
         <v>1203</v>
       </c>
       <c r="I336" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1912</v>
       </c>
@@ -13098,10 +13098,10 @@
         <v>1203</v>
       </c>
       <c r="I337" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1912</v>
       </c>
@@ -13124,10 +13124,10 @@
         <v>1203</v>
       </c>
       <c r="I338" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1912</v>
       </c>
@@ -13150,10 +13150,10 @@
         <v>1203</v>
       </c>
       <c r="I339" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1912</v>
       </c>
@@ -13176,10 +13176,10 @@
         <v>1204</v>
       </c>
       <c r="I340" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1912</v>
       </c>
@@ -13202,10 +13202,10 @@
         <v>1204</v>
       </c>
       <c r="I341" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1912</v>
       </c>
@@ -13228,10 +13228,10 @@
         <v>1204</v>
       </c>
       <c r="I342" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1912</v>
       </c>
@@ -13257,10 +13257,10 @@
         <v>1205</v>
       </c>
       <c r="I343" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1912</v>
       </c>
@@ -13286,10 +13286,10 @@
         <v>1205</v>
       </c>
       <c r="I344" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1912</v>
       </c>
@@ -13315,10 +13315,10 @@
         <v>1205</v>
       </c>
       <c r="I345" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1912</v>
       </c>
@@ -13344,10 +13344,10 @@
         <v>1206</v>
       </c>
       <c r="I346" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1912</v>
       </c>
@@ -13370,10 +13370,10 @@
         <v>1206</v>
       </c>
       <c r="I347" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1912</v>
       </c>
@@ -13396,10 +13396,10 @@
         <v>1206</v>
       </c>
       <c r="I348" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1912</v>
       </c>
@@ -13419,13 +13419,13 @@
         <v>1079</v>
       </c>
       <c r="H349" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I349" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1912</v>
       </c>
@@ -13445,13 +13445,13 @@
         <v>894</v>
       </c>
       <c r="H350" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I350" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1912</v>
       </c>
@@ -13474,10 +13474,10 @@
         <v>1207</v>
       </c>
       <c r="I351" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1912</v>
       </c>
@@ -13497,13 +13497,13 @@
         <v>859</v>
       </c>
       <c r="H352" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I352" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1912</v>
       </c>
@@ -13529,13 +13529,13 @@
         <v>1184</v>
       </c>
       <c r="I353" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J353" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1912</v>
       </c>
@@ -13558,13 +13558,13 @@
         <v>1184</v>
       </c>
       <c r="I354" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J354" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1912</v>
       </c>
@@ -13587,13 +13587,13 @@
         <v>1184</v>
       </c>
       <c r="I355" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J355" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1912</v>
       </c>
@@ -13616,13 +13616,13 @@
         <v>1184</v>
       </c>
       <c r="I356" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J356" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1912</v>
       </c>
@@ -13645,10 +13645,10 @@
         <v>1208</v>
       </c>
       <c r="I357" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1912</v>
       </c>
@@ -13671,10 +13671,10 @@
         <v>1208</v>
       </c>
       <c r="I358" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1912</v>
       </c>
@@ -13697,10 +13697,10 @@
         <v>1208</v>
       </c>
       <c r="I359" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1912</v>
       </c>
@@ -13723,10 +13723,10 @@
         <v>1208</v>
       </c>
       <c r="I360" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1912</v>
       </c>
@@ -13749,10 +13749,10 @@
         <v>1208</v>
       </c>
       <c r="I361" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1912</v>
       </c>
@@ -13775,10 +13775,10 @@
         <v>1208</v>
       </c>
       <c r="I362" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1912</v>
       </c>
@@ -13801,10 +13801,10 @@
         <v>1208</v>
       </c>
       <c r="I363" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1912</v>
       </c>
@@ -13827,10 +13827,10 @@
         <v>1209</v>
       </c>
       <c r="I364" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1912</v>
       </c>
@@ -13853,10 +13853,10 @@
         <v>1209</v>
       </c>
       <c r="I365" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1912</v>
       </c>
@@ -13879,10 +13879,10 @@
         <v>1209</v>
       </c>
       <c r="I366" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1912</v>
       </c>
@@ -13905,10 +13905,10 @@
         <v>1210</v>
       </c>
       <c r="I367" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1912</v>
       </c>
@@ -13931,10 +13931,10 @@
         <v>1211</v>
       </c>
       <c r="I368" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1912</v>
       </c>
@@ -13957,10 +13957,10 @@
         <v>1211</v>
       </c>
       <c r="I369" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1912</v>
       </c>
@@ -13983,10 +13983,10 @@
         <v>1212</v>
       </c>
       <c r="I370" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1912</v>
       </c>
@@ -14012,10 +14012,10 @@
         <v>1213</v>
       </c>
       <c r="I371" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1912</v>
       </c>
@@ -14041,10 +14041,10 @@
         <v>1213</v>
       </c>
       <c r="I372" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1912</v>
       </c>
@@ -14070,10 +14070,10 @@
         <v>1213</v>
       </c>
       <c r="I373" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1912</v>
       </c>
@@ -14099,10 +14099,10 @@
         <v>1213</v>
       </c>
       <c r="I374" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1912</v>
       </c>
@@ -14128,10 +14128,10 @@
         <v>1214</v>
       </c>
       <c r="I375" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1912</v>
       </c>
@@ -14157,10 +14157,10 @@
         <v>1214</v>
       </c>
       <c r="I376" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1912</v>
       </c>
@@ -14186,10 +14186,10 @@
         <v>1214</v>
       </c>
       <c r="I377" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1912</v>
       </c>
@@ -14215,10 +14215,10 @@
         <v>1214</v>
       </c>
       <c r="I378" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1912</v>
       </c>
@@ -14241,10 +14241,10 @@
         <v>1215</v>
       </c>
       <c r="I379" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1912</v>
       </c>
@@ -14267,10 +14267,10 @@
         <v>1215</v>
       </c>
       <c r="I380" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1912</v>
       </c>
@@ -14293,10 +14293,10 @@
         <v>1216</v>
       </c>
       <c r="I381" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1912</v>
       </c>
@@ -14319,10 +14319,10 @@
         <v>1216</v>
       </c>
       <c r="I382" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1912</v>
       </c>
@@ -14345,10 +14345,10 @@
         <v>1217</v>
       </c>
       <c r="I383" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1912</v>
       </c>
@@ -14371,10 +14371,10 @@
         <v>1217</v>
       </c>
       <c r="I384" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1912</v>
       </c>
@@ -14397,10 +14397,10 @@
         <v>1217</v>
       </c>
       <c r="I385" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1912</v>
       </c>
@@ -14423,10 +14423,10 @@
         <v>1217</v>
       </c>
       <c r="I386" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1912</v>
       </c>
@@ -14449,10 +14449,10 @@
         <v>1217</v>
       </c>
       <c r="I387" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1912</v>
       </c>
@@ -14475,10 +14475,10 @@
         <v>1131</v>
       </c>
       <c r="I388" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1912</v>
       </c>
@@ -14501,10 +14501,10 @@
         <v>1131</v>
       </c>
       <c r="I389" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1912</v>
       </c>
@@ -14527,10 +14527,10 @@
         <v>1131</v>
       </c>
       <c r="I390" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1912</v>
       </c>
@@ -14553,10 +14553,10 @@
         <v>1131</v>
       </c>
       <c r="I391" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1912</v>
       </c>
@@ -14576,13 +14576,13 @@
         <v>929</v>
       </c>
       <c r="H392" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I392" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1912</v>
       </c>
@@ -14602,13 +14602,13 @@
         <v>1099</v>
       </c>
       <c r="H393" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I393" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1912</v>
       </c>
@@ -14628,13 +14628,13 @@
         <v>1100</v>
       </c>
       <c r="H394" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I394" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1912</v>
       </c>
@@ -14654,13 +14654,13 @@
         <v>1101</v>
       </c>
       <c r="H395" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I395" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1912</v>
       </c>
@@ -14680,13 +14680,13 @@
         <v>1102</v>
       </c>
       <c r="H396" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I396" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1912</v>
       </c>
@@ -14706,13 +14706,13 @@
         <v>1103</v>
       </c>
       <c r="H397" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I397" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1912</v>
       </c>
@@ -14732,13 +14732,13 @@
         <v>1104</v>
       </c>
       <c r="H398" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I398" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1912</v>
       </c>
@@ -14761,10 +14761,10 @@
         <v>1218</v>
       </c>
       <c r="I399" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1912</v>
       </c>
@@ -14787,10 +14787,10 @@
         <v>1218</v>
       </c>
       <c r="I400" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1912</v>
       </c>
@@ -14813,10 +14813,10 @@
         <v>1218</v>
       </c>
       <c r="I401" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1912</v>
       </c>
@@ -14839,10 +14839,10 @@
         <v>1218</v>
       </c>
       <c r="I402" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1912</v>
       </c>
@@ -14865,10 +14865,10 @@
         <v>1218</v>
       </c>
       <c r="I403" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1912</v>
       </c>
@@ -14891,10 +14891,10 @@
         <v>1219</v>
       </c>
       <c r="I404" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1912</v>
       </c>
@@ -14917,10 +14917,10 @@
         <v>1220</v>
       </c>
       <c r="I405" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1912</v>
       </c>
@@ -14943,10 +14943,10 @@
         <v>1220</v>
       </c>
       <c r="I406" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1912</v>
       </c>
@@ -14969,10 +14969,10 @@
         <v>1220</v>
       </c>
       <c r="I407" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1912</v>
       </c>
@@ -14995,10 +14995,10 @@
         <v>1221</v>
       </c>
       <c r="I408" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1912</v>
       </c>
@@ -15021,10 +15021,10 @@
         <v>1221</v>
       </c>
       <c r="I409" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1912</v>
       </c>
@@ -15050,10 +15050,10 @@
         <v>1222</v>
       </c>
       <c r="I410" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1912</v>
       </c>
@@ -15076,10 +15076,10 @@
         <v>1222</v>
       </c>
       <c r="I411" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1912</v>
       </c>
@@ -15102,10 +15102,10 @@
         <v>1223</v>
       </c>
       <c r="I412" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1912</v>
       </c>
@@ -15128,10 +15128,10 @@
         <v>1223</v>
       </c>
       <c r="I413" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1912</v>
       </c>
@@ -15154,10 +15154,10 @@
         <v>1223</v>
       </c>
       <c r="I414" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1912</v>
       </c>
@@ -15180,10 +15180,10 @@
         <v>1223</v>
       </c>
       <c r="I415" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1912</v>
       </c>
@@ -15206,10 +15206,10 @@
         <v>1224</v>
       </c>
       <c r="I416" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1912</v>
       </c>
@@ -15232,10 +15232,10 @@
         <v>1224</v>
       </c>
       <c r="I417" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1912</v>
       </c>
@@ -15258,10 +15258,10 @@
         <v>1225</v>
       </c>
       <c r="I418" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1912</v>
       </c>
@@ -15284,10 +15284,10 @@
         <v>1226</v>
       </c>
       <c r="I419" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1912</v>
       </c>
@@ -15310,10 +15310,10 @@
         <v>1227</v>
       </c>
       <c r="I420" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1912</v>
       </c>
@@ -15336,10 +15336,10 @@
         <v>1228</v>
       </c>
       <c r="I421" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1912</v>
       </c>
@@ -15362,10 +15362,10 @@
         <v>1228</v>
       </c>
       <c r="I422" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1912</v>
       </c>
@@ -15388,10 +15388,10 @@
         <v>1228</v>
       </c>
       <c r="I423" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1912</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>1228</v>
       </c>
       <c r="I424" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1912_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1912_Winter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B4F09F-C979-4E19-82BD-9E0A73A17DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81219C20-B40A-44AF-9684-132DB528700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3491,9 +3491,6 @@
     <t>wyss_mo</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>sommer_e</t>
   </si>
   <si>
@@ -3707,9 +3704,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
@@ -3740,9 +3734,6 @@
     <t>Philosophische Fakultät II</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3752,12 +3743,6 @@
     <t>bachmann_g</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3770,9 +3755,6 @@
     <t>sauerbruch_f</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -3894,6 +3876,24 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3929,11 +3929,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4237,11 +4240,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D169" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H181" sqref="H181"/>
+    <sheetView tabSelected="1" topLeftCell="E92" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="40.44140625" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" customWidth="1"/>
@@ -4260,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4272,7 +4275,7 @@
         <v>1120</v>
       </c>
       <c r="I1" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4286,7 +4289,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F2" t="s">
         <v>426</v>
@@ -4298,10 +4301,10 @@
         <v>1117</v>
       </c>
       <c r="I2" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J2" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4315,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F3" t="s">
         <v>427</v>
@@ -4327,10 +4330,10 @@
         <v>1117</v>
       </c>
       <c r="I3" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J3" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4344,7 +4347,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F4" t="s">
         <v>428</v>
@@ -4353,10 +4356,10 @@
         <v>845</v>
       </c>
       <c r="H4" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="I4" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4370,7 +4373,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F5" t="s">
         <v>429</v>
@@ -4382,10 +4385,10 @@
         <v>1117</v>
       </c>
       <c r="I5" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J5" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4399,7 +4402,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F6" t="s">
         <v>430</v>
@@ -4408,10 +4411,10 @@
         <v>847</v>
       </c>
       <c r="H6" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="I6" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4425,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F7" t="s">
         <v>431</v>
@@ -4437,7 +4440,7 @@
         <v>1119</v>
       </c>
       <c r="I7" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4451,7 +4454,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F8" t="s">
         <v>432</v>
@@ -4463,7 +4466,7 @@
         <v>1119</v>
       </c>
       <c r="I8" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4477,7 +4480,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F9" t="s">
         <v>433</v>
@@ -4489,7 +4492,7 @@
         <v>1119</v>
       </c>
       <c r="I9" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4503,7 +4506,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F10" t="s">
         <v>434</v>
@@ -4512,10 +4515,10 @@
         <v>851</v>
       </c>
       <c r="H10" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="I10" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4529,7 +4532,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F11" t="s">
         <v>435</v>
@@ -4538,10 +4541,10 @@
         <v>852</v>
       </c>
       <c r="H11" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="I11" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4555,7 +4558,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F12" t="s">
         <v>436</v>
@@ -4567,7 +4570,7 @@
         <v>1119</v>
       </c>
       <c r="I12" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4581,7 +4584,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F13" t="s">
         <v>437</v>
@@ -4593,7 +4596,7 @@
         <v>1118</v>
       </c>
       <c r="I13" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4607,7 +4610,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F14" t="s">
         <v>438</v>
@@ -4619,7 +4622,7 @@
         <v>1118</v>
       </c>
       <c r="I14" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4633,7 +4636,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F15" t="s">
         <v>439</v>
@@ -4645,7 +4648,7 @@
         <v>1118</v>
       </c>
       <c r="I15" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4659,7 +4662,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F16" t="s">
         <v>440</v>
@@ -4668,10 +4671,10 @@
         <v>857</v>
       </c>
       <c r="H16" t="s">
-        <v>1235</v>
+        <v>1283</v>
       </c>
       <c r="I16" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4685,7 +4688,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F17" t="s">
         <v>441</v>
@@ -4694,10 +4697,10 @@
         <v>858</v>
       </c>
       <c r="H17" t="s">
-        <v>1235</v>
+        <v>1283</v>
       </c>
       <c r="I17" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4711,7 +4714,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F18" t="s">
         <v>442</v>
@@ -4720,10 +4723,10 @@
         <v>859</v>
       </c>
       <c r="H18" t="s">
-        <v>1235</v>
+        <v>1283</v>
       </c>
       <c r="I18" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4737,7 +4740,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F19" t="s">
         <v>443</v>
@@ -4746,10 +4749,10 @@
         <v>860</v>
       </c>
       <c r="H19" t="s">
-        <v>1235</v>
+        <v>1283</v>
       </c>
       <c r="I19" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4763,7 +4766,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F20" t="s">
         <v>444</v>
@@ -4775,7 +4778,7 @@
         <v>1120</v>
       </c>
       <c r="I20" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4789,7 +4792,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F21" t="s">
         <v>445</v>
@@ -4798,10 +4801,10 @@
         <v>862</v>
       </c>
       <c r="H21" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="I21" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4815,7 +4818,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F22" t="s">
         <v>446</v>
@@ -4824,10 +4827,10 @@
         <v>863</v>
       </c>
       <c r="H22" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="I22" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4841,7 +4844,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F23" t="s">
         <v>447</v>
@@ -4853,7 +4856,7 @@
         <v>1121</v>
       </c>
       <c r="I23" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4867,7 +4870,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F24" t="s">
         <v>448</v>
@@ -4879,10 +4882,10 @@
         <v>1117</v>
       </c>
       <c r="I24" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J24" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4896,7 +4899,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F25" t="s">
         <v>449</v>
@@ -4905,10 +4908,10 @@
         <v>865</v>
       </c>
       <c r="H25" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="I25" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4922,7 +4925,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F26" t="s">
         <v>450</v>
@@ -4934,7 +4937,7 @@
         <v>1119</v>
       </c>
       <c r="I26" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4948,7 +4951,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F27" t="s">
         <v>451</v>
@@ -4960,7 +4963,7 @@
         <v>1118</v>
       </c>
       <c r="I27" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4974,7 +4977,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F28" t="s">
         <v>452</v>
@@ -4986,7 +4989,7 @@
         <v>1120</v>
       </c>
       <c r="I28" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5000,7 +5003,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F29" t="s">
         <v>453</v>
@@ -5012,7 +5015,7 @@
         <v>1120</v>
       </c>
       <c r="I29" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5026,7 +5029,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F30" t="s">
         <v>454</v>
@@ -5035,10 +5038,10 @@
         <v>869</v>
       </c>
       <c r="H30" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="I30" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5052,7 +5055,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F31" t="s">
         <v>455</v>
@@ -5064,7 +5067,7 @@
         <v>1122</v>
       </c>
       <c r="I31" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5078,7 +5081,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F32" t="s">
         <v>456</v>
@@ -5090,7 +5093,7 @@
         <v>1123</v>
       </c>
       <c r="I32" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5104,10 +5107,10 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F33" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="G33" t="s">
         <v>850</v>
@@ -5116,7 +5119,7 @@
         <v>1123</v>
       </c>
       <c r="I33" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5130,7 +5133,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F34" t="s">
         <v>457</v>
@@ -5142,7 +5145,7 @@
         <v>1124</v>
       </c>
       <c r="I34" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5156,7 +5159,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F35" t="s">
         <v>458</v>
@@ -5168,7 +5171,7 @@
         <v>1124</v>
       </c>
       <c r="I35" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5182,7 +5185,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F36" t="s">
         <v>459</v>
@@ -5194,7 +5197,7 @@
         <v>1124</v>
       </c>
       <c r="I36" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5208,7 +5211,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F37" t="s">
         <v>460</v>
@@ -5220,10 +5223,10 @@
         <v>1125</v>
       </c>
       <c r="I37" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J37" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5237,7 +5240,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F38" t="s">
         <v>461</v>
@@ -5249,10 +5252,10 @@
         <v>1125</v>
       </c>
       <c r="I38" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J38" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5266,7 +5269,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F39" t="s">
         <v>462</v>
@@ -5275,10 +5278,10 @@
         <v>877</v>
       </c>
       <c r="H39" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="I39" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5292,7 +5295,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F40" t="s">
         <v>463</v>
@@ -5304,7 +5307,7 @@
         <v>1126</v>
       </c>
       <c r="I40" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5318,19 +5321,19 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F41" t="s">
         <v>464</v>
       </c>
       <c r="G41" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="H41" t="s">
         <v>1124</v>
       </c>
       <c r="I41" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5344,7 +5347,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F42" t="s">
         <v>465</v>
@@ -5356,7 +5359,7 @@
         <v>1124</v>
       </c>
       <c r="I42" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5370,7 +5373,7 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F43" t="s">
         <v>466</v>
@@ -5382,7 +5385,7 @@
         <v>1127</v>
       </c>
       <c r="I43" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5396,7 +5399,7 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F44" t="s">
         <v>467</v>
@@ -5408,7 +5411,7 @@
         <v>1122</v>
       </c>
       <c r="I44" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5422,7 +5425,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F45" t="s">
         <v>468</v>
@@ -5434,7 +5437,7 @@
         <v>1127</v>
       </c>
       <c r="I45" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5448,7 +5451,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F46" t="s">
         <v>469</v>
@@ -5460,7 +5463,7 @@
         <v>1122</v>
       </c>
       <c r="I46" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5474,7 +5477,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F47" t="s">
         <v>470</v>
@@ -5486,7 +5489,7 @@
         <v>1127</v>
       </c>
       <c r="I47" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5500,7 +5503,7 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F48" t="s">
         <v>471</v>
@@ -5512,7 +5515,7 @@
         <v>1127</v>
       </c>
       <c r="I48" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5526,7 +5529,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F49" t="s">
         <v>472</v>
@@ -5535,10 +5538,10 @@
         <v>886</v>
       </c>
       <c r="H49" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I49" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5552,7 +5555,7 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F50" t="s">
         <v>473</v>
@@ -5564,7 +5567,7 @@
         <v>1128</v>
       </c>
       <c r="I50" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5578,7 +5581,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F51" t="s">
         <v>474</v>
@@ -5590,7 +5593,7 @@
         <v>1128</v>
       </c>
       <c r="I51" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5604,7 +5607,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F52" t="s">
         <v>475</v>
@@ -5616,10 +5619,10 @@
         <v>1129</v>
       </c>
       <c r="I52" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J52" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5633,7 +5636,7 @@
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F53" t="s">
         <v>476</v>
@@ -5645,10 +5648,10 @@
         <v>1129</v>
       </c>
       <c r="I53" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J53" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5662,7 +5665,7 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F54" t="s">
         <v>477</v>
@@ -5674,7 +5677,7 @@
         <v>1130</v>
       </c>
       <c r="I54" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5688,7 +5691,7 @@
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F55" t="s">
         <v>478</v>
@@ -5700,7 +5703,7 @@
         <v>1130</v>
       </c>
       <c r="I55" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5714,7 +5717,7 @@
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F56" t="s">
         <v>479</v>
@@ -5726,7 +5729,7 @@
         <v>1130</v>
       </c>
       <c r="I56" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5740,7 +5743,7 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F57" t="s">
         <v>480</v>
@@ -5752,7 +5755,7 @@
         <v>1131</v>
       </c>
       <c r="I57" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5766,7 +5769,7 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F58" t="s">
         <v>481</v>
@@ -5775,10 +5778,10 @@
         <v>894</v>
       </c>
       <c r="H58" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I58" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5792,7 +5795,7 @@
         <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F59" t="s">
         <v>482</v>
@@ -5804,7 +5807,7 @@
         <v>1132</v>
       </c>
       <c r="I59" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5818,7 +5821,7 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F60" t="s">
         <v>483</v>
@@ -5830,7 +5833,7 @@
         <v>1133</v>
       </c>
       <c r="I60" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5844,7 +5847,7 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F61" t="s">
         <v>484</v>
@@ -5853,10 +5856,10 @@
         <v>893</v>
       </c>
       <c r="H61" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="I61" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5870,7 +5873,7 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F62" t="s">
         <v>485</v>
@@ -5879,10 +5882,10 @@
         <v>897</v>
       </c>
       <c r="H62" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I62" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5896,7 +5899,7 @@
         <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F63" t="s">
         <v>486</v>
@@ -5905,10 +5908,10 @@
         <v>898</v>
       </c>
       <c r="H63" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I63" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5922,7 +5925,7 @@
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F64" t="s">
         <v>487</v>
@@ -5931,10 +5934,10 @@
         <v>899</v>
       </c>
       <c r="H64" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I64" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -5948,7 +5951,7 @@
         <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F65" t="s">
         <v>488</v>
@@ -5960,7 +5963,7 @@
         <v>1135</v>
       </c>
       <c r="I65" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -5974,7 +5977,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F66" t="s">
         <v>489</v>
@@ -5986,7 +5989,7 @@
         <v>1136</v>
       </c>
       <c r="I66" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6000,7 +6003,7 @@
         <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F67" t="s">
         <v>490</v>
@@ -6009,10 +6012,10 @@
         <v>901</v>
       </c>
       <c r="H67" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="I67" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6026,7 +6029,7 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F68" t="s">
         <v>491</v>
@@ -6038,7 +6041,7 @@
         <v>1137</v>
       </c>
       <c r="I68" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6052,7 +6055,7 @@
         <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F69" t="s">
         <v>492</v>
@@ -6064,7 +6067,7 @@
         <v>1122</v>
       </c>
       <c r="I69" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6078,7 +6081,7 @@
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F70" t="s">
         <v>493</v>
@@ -6090,7 +6093,7 @@
         <v>1123</v>
       </c>
       <c r="I70" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6104,7 +6107,7 @@
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F71" t="s">
         <v>494</v>
@@ -6116,7 +6119,7 @@
         <v>1123</v>
       </c>
       <c r="I71" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6130,7 +6133,7 @@
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F72" t="s">
         <v>495</v>
@@ -6142,10 +6145,10 @@
         <v>1125</v>
       </c>
       <c r="I72" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J72" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6159,7 +6162,7 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F73" t="s">
         <v>496</v>
@@ -6171,7 +6174,7 @@
         <v>1124</v>
       </c>
       <c r="I73" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6185,7 +6188,7 @@
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F74" t="s">
         <v>497</v>
@@ -6197,7 +6200,7 @@
         <v>1128</v>
       </c>
       <c r="I74" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6211,7 +6214,7 @@
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F75" t="s">
         <v>498</v>
@@ -6220,10 +6223,10 @@
         <v>904</v>
       </c>
       <c r="H75" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="I75" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6237,7 +6240,7 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F76" t="s">
         <v>499</v>
@@ -6249,7 +6252,7 @@
         <v>1132</v>
       </c>
       <c r="I76" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6263,7 +6266,7 @@
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F77" t="s">
         <v>500</v>
@@ -6275,7 +6278,7 @@
         <v>1133</v>
       </c>
       <c r="I77" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6289,7 +6292,7 @@
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F78" t="s">
         <v>501</v>
@@ -6301,10 +6304,10 @@
         <v>1129</v>
       </c>
       <c r="I78" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J78" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6318,7 +6321,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F79" t="s">
         <v>502</v>
@@ -6330,10 +6333,10 @@
         <v>1129</v>
       </c>
       <c r="I79" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J79" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6347,7 +6350,7 @@
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F80" t="s">
         <v>503</v>
@@ -6359,7 +6362,7 @@
         <v>1130</v>
       </c>
       <c r="I80" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -6373,7 +6376,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F81" t="s">
         <v>504</v>
@@ -6385,7 +6388,7 @@
         <v>1131</v>
       </c>
       <c r="I81" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -6399,7 +6402,7 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F82" t="s">
         <v>505</v>
@@ -6408,10 +6411,10 @@
         <v>909</v>
       </c>
       <c r="H82" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I82" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -6425,7 +6428,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F83" t="s">
         <v>506</v>
@@ -6434,10 +6437,10 @@
         <v>910</v>
       </c>
       <c r="H83" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="I83" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -6451,7 +6454,7 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F84" t="s">
         <v>507</v>
@@ -6463,7 +6466,7 @@
         <v>1138</v>
       </c>
       <c r="I84" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -6477,7 +6480,7 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F85" t="s">
         <v>508</v>
@@ -6489,7 +6492,7 @@
         <v>1138</v>
       </c>
       <c r="I85" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6503,7 +6506,7 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F86" t="s">
         <v>509</v>
@@ -6512,10 +6515,10 @@
         <v>913</v>
       </c>
       <c r="H86" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="I86" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6529,7 +6532,7 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F87" t="s">
         <v>510</v>
@@ -6541,7 +6544,7 @@
         <v>1139</v>
       </c>
       <c r="I87" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6555,7 +6558,7 @@
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F88" t="s">
         <v>511</v>
@@ -6567,7 +6570,7 @@
         <v>1140</v>
       </c>
       <c r="I88" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6581,7 +6584,7 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F89" t="s">
         <v>512</v>
@@ -6593,7 +6596,7 @@
         <v>1141</v>
       </c>
       <c r="I89" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6610,7 +6613,7 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F90" t="s">
         <v>513</v>
@@ -6622,7 +6625,7 @@
         <v>1141</v>
       </c>
       <c r="I90" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6636,7 +6639,7 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F91" t="s">
         <v>514</v>
@@ -6648,7 +6651,7 @@
         <v>1141</v>
       </c>
       <c r="I91" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -6665,7 +6668,7 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F92" t="s">
         <v>515</v>
@@ -6677,7 +6680,7 @@
         <v>1142</v>
       </c>
       <c r="I92" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -6691,7 +6694,7 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F93" t="s">
         <v>516</v>
@@ -6703,7 +6706,7 @@
         <v>1142</v>
       </c>
       <c r="I93" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6720,7 +6723,7 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F94" t="s">
         <v>517</v>
@@ -6732,7 +6735,7 @@
         <v>1142</v>
       </c>
       <c r="I94" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -6746,7 +6749,7 @@
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F95" t="s">
         <v>518</v>
@@ -6758,7 +6761,7 @@
         <v>1143</v>
       </c>
       <c r="I95" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6775,7 +6778,7 @@
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F96" t="s">
         <v>519</v>
@@ -6787,7 +6790,7 @@
         <v>1144</v>
       </c>
       <c r="I96" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6801,7 +6804,7 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F97" t="s">
         <v>520</v>
@@ -6810,10 +6813,10 @@
         <v>924</v>
       </c>
       <c r="H97" t="s">
-        <v>1239</v>
+        <v>1282</v>
       </c>
       <c r="I97" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -6827,7 +6830,7 @@
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F98" t="s">
         <v>521</v>
@@ -6836,10 +6839,10 @@
         <v>918</v>
       </c>
       <c r="H98" t="s">
-        <v>1239</v>
+        <v>1282</v>
       </c>
       <c r="I98" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -6853,7 +6856,7 @@
         <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F99" t="s">
         <v>522</v>
@@ -6865,7 +6868,7 @@
         <v>1145</v>
       </c>
       <c r="I99" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -6879,7 +6882,7 @@
         <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F100" t="s">
         <v>523</v>
@@ -6891,7 +6894,7 @@
         <v>1145</v>
       </c>
       <c r="I100" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -6905,7 +6908,7 @@
         <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F101" t="s">
         <v>524</v>
@@ -6917,7 +6920,7 @@
         <v>1145</v>
       </c>
       <c r="I101" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -6931,7 +6934,7 @@
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F102" t="s">
         <v>525</v>
@@ -6943,7 +6946,7 @@
         <v>1145</v>
       </c>
       <c r="I102" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -6957,7 +6960,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F103" t="s">
         <v>526</v>
@@ -6969,7 +6972,7 @@
         <v>1145</v>
       </c>
       <c r="I103" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -6983,7 +6986,7 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F104" t="s">
         <v>527</v>
@@ -6995,7 +6998,7 @@
         <v>1146</v>
       </c>
       <c r="I104" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -7009,7 +7012,7 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F105" t="s">
         <v>528</v>
@@ -7018,13 +7021,13 @@
         <v>930</v>
       </c>
       <c r="H105" t="s">
-        <v>1240</v>
+        <v>1286</v>
       </c>
       <c r="I105" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J105" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7038,7 +7041,7 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F106" t="s">
         <v>529</v>
@@ -7047,13 +7050,13 @@
         <v>931</v>
       </c>
       <c r="H106" t="s">
-        <v>1240</v>
+        <v>1286</v>
       </c>
       <c r="I106" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J106" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7067,7 +7070,7 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F107" t="s">
         <v>530</v>
@@ -7076,13 +7079,13 @@
         <v>932</v>
       </c>
       <c r="H107" t="s">
-        <v>1240</v>
+        <v>1286</v>
       </c>
       <c r="I107" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J107" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7096,7 +7099,7 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F108" t="s">
         <v>531</v>
@@ -7108,7 +7111,7 @@
         <v>1147</v>
       </c>
       <c r="I108" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7122,7 +7125,7 @@
         <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F109" t="s">
         <v>532</v>
@@ -7134,7 +7137,7 @@
         <v>1147</v>
       </c>
       <c r="I109" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7148,7 +7151,7 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F110" t="s">
         <v>533</v>
@@ -7160,7 +7163,7 @@
         <v>1147</v>
       </c>
       <c r="I110" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7174,7 +7177,7 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F111" t="s">
         <v>534</v>
@@ -7186,7 +7189,7 @@
         <v>1147</v>
       </c>
       <c r="I111" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7200,7 +7203,7 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F112" t="s">
         <v>535</v>
@@ -7212,7 +7215,7 @@
         <v>1147</v>
       </c>
       <c r="I112" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7226,7 +7229,7 @@
         <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F113" t="s">
         <v>514</v>
@@ -7238,7 +7241,7 @@
         <v>1147</v>
       </c>
       <c r="I113" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7252,7 +7255,7 @@
         <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F114" t="s">
         <v>536</v>
@@ -7261,10 +7264,10 @@
         <v>938</v>
       </c>
       <c r="H114" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="I114" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7278,7 +7281,7 @@
         <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F115" t="s">
         <v>537</v>
@@ -7287,10 +7290,10 @@
         <v>939</v>
       </c>
       <c r="H115" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="I115" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7304,7 +7307,7 @@
         <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F116" t="s">
         <v>538</v>
@@ -7316,7 +7319,7 @@
         <v>1148</v>
       </c>
       <c r="I116" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7330,7 +7333,7 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F117" t="s">
         <v>539</v>
@@ -7342,7 +7345,7 @@
         <v>1148</v>
       </c>
       <c r="I117" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7356,7 +7359,7 @@
         <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F118" t="s">
         <v>540</v>
@@ -7368,7 +7371,7 @@
         <v>1148</v>
       </c>
       <c r="I118" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7382,7 +7385,7 @@
         <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F119" t="s">
         <v>541</v>
@@ -7394,7 +7397,7 @@
         <v>1148</v>
       </c>
       <c r="I119" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7408,7 +7411,7 @@
         <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F120" t="s">
         <v>542</v>
@@ -7417,10 +7420,10 @@
         <v>943</v>
       </c>
       <c r="H120" t="s">
-        <v>1239</v>
+        <v>1282</v>
       </c>
       <c r="I120" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7434,7 +7437,7 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F121" t="s">
         <v>543</v>
@@ -7443,10 +7446,10 @@
         <v>944</v>
       </c>
       <c r="H121" t="s">
-        <v>1239</v>
+        <v>1282</v>
       </c>
       <c r="I121" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7460,7 +7463,7 @@
         <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F122" t="s">
         <v>544</v>
@@ -7469,10 +7472,10 @@
         <v>929</v>
       </c>
       <c r="H122" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="I122" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7486,7 +7489,7 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F123" t="s">
         <v>545</v>
@@ -7495,10 +7498,10 @@
         <v>859</v>
       </c>
       <c r="H123" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="I123" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7512,7 +7515,7 @@
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F124" t="s">
         <v>546</v>
@@ -7521,10 +7524,10 @@
         <v>929</v>
       </c>
       <c r="H124" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="I124" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7538,7 +7541,7 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F125" t="s">
         <v>547</v>
@@ -7550,7 +7553,7 @@
         <v>1149</v>
       </c>
       <c r="I125" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7564,7 +7567,7 @@
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F126" t="s">
         <v>548</v>
@@ -7576,7 +7579,7 @@
         <v>1149</v>
       </c>
       <c r="I126" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7590,7 +7593,7 @@
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F127" t="s">
         <v>549</v>
@@ -7602,7 +7605,7 @@
         <v>1150</v>
       </c>
       <c r="I127" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7616,7 +7619,7 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F128" t="s">
         <v>550</v>
@@ -7625,10 +7628,10 @@
         <v>859</v>
       </c>
       <c r="H128" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="I128" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7642,7 +7645,7 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F129" t="s">
         <v>551</v>
@@ -7651,10 +7654,10 @@
         <v>929</v>
       </c>
       <c r="H129" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="I129" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7668,7 +7671,7 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F130" t="s">
         <v>552</v>
@@ -7677,10 +7680,10 @@
         <v>948</v>
       </c>
       <c r="H130" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I130" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7694,7 +7697,7 @@
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F131" t="s">
         <v>553</v>
@@ -7703,10 +7706,10 @@
         <v>949</v>
       </c>
       <c r="H131" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I131" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7720,7 +7723,7 @@
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F132" t="s">
         <v>554</v>
@@ -7729,10 +7732,10 @@
         <v>950</v>
       </c>
       <c r="H132" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="I132" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7746,7 +7749,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F133" t="s">
         <v>555</v>
@@ -7755,10 +7758,10 @@
         <v>859</v>
       </c>
       <c r="H133" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="I133" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7772,7 +7775,7 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F134" t="s">
         <v>556</v>
@@ -7781,10 +7784,10 @@
         <v>859</v>
       </c>
       <c r="H134" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="I134" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7798,7 +7801,7 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F135" t="s">
         <v>557</v>
@@ -7807,10 +7810,10 @@
         <v>951</v>
       </c>
       <c r="H135" t="s">
-        <v>1152</v>
+        <v>1284</v>
       </c>
       <c r="I135" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7824,7 +7827,7 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F136" t="s">
         <v>558</v>
@@ -7833,10 +7836,10 @@
         <v>859</v>
       </c>
       <c r="H136" t="s">
-        <v>1152</v>
+        <v>1284</v>
       </c>
       <c r="I136" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7850,7 +7853,7 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F137" t="s">
         <v>559</v>
@@ -7859,10 +7862,10 @@
         <v>859</v>
       </c>
       <c r="H137" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="I137" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7876,7 +7879,7 @@
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F138" t="s">
         <v>560</v>
@@ -7885,10 +7888,10 @@
         <v>952</v>
       </c>
       <c r="H138" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I138" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7902,7 +7905,7 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F139" t="s">
         <v>561</v>
@@ -7911,10 +7914,10 @@
         <v>953</v>
       </c>
       <c r="H139" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I139" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7928,7 +7931,7 @@
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F140" t="s">
         <v>562</v>
@@ -7937,10 +7940,10 @@
         <v>954</v>
       </c>
       <c r="H140" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I140" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7954,7 +7957,7 @@
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F141" t="s">
         <v>563</v>
@@ -7963,10 +7966,10 @@
         <v>955</v>
       </c>
       <c r="H141" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="I141" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7980,7 +7983,7 @@
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F142" t="s">
         <v>564</v>
@@ -7989,10 +7992,10 @@
         <v>956</v>
       </c>
       <c r="H142" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="I142" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8006,7 +8009,7 @@
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F143" t="s">
         <v>565</v>
@@ -8015,10 +8018,10 @@
         <v>854</v>
       </c>
       <c r="H143" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I143" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8032,7 +8035,7 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F144" t="s">
         <v>566</v>
@@ -8041,10 +8044,10 @@
         <v>957</v>
       </c>
       <c r="H144" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I144" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8058,7 +8061,7 @@
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F145" t="s">
         <v>567</v>
@@ -8067,10 +8070,10 @@
         <v>958</v>
       </c>
       <c r="H145" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I145" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8084,7 +8087,7 @@
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F146" t="s">
         <v>568</v>
@@ -8093,10 +8096,10 @@
         <v>929</v>
       </c>
       <c r="H146" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="I146" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8110,7 +8113,7 @@
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F147" t="s">
         <v>569</v>
@@ -8119,10 +8122,10 @@
         <v>859</v>
       </c>
       <c r="H147" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="I147" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8136,7 +8139,7 @@
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F148" t="s">
         <v>570</v>
@@ -8145,10 +8148,10 @@
         <v>959</v>
       </c>
       <c r="H148" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="I148" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8162,7 +8165,7 @@
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F149" t="s">
         <v>569</v>
@@ -8171,10 +8174,10 @@
         <v>859</v>
       </c>
       <c r="H149" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="I149" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8188,7 +8191,7 @@
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F150" t="s">
         <v>571</v>
@@ -8197,10 +8200,10 @@
         <v>960</v>
       </c>
       <c r="H150" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I150" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8214,7 +8217,7 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F151" t="s">
         <v>572</v>
@@ -8223,10 +8226,10 @@
         <v>894</v>
       </c>
       <c r="H151" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I151" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8240,7 +8243,7 @@
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F152" t="s">
         <v>573</v>
@@ -8249,10 +8252,10 @@
         <v>961</v>
       </c>
       <c r="H152" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I152" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8266,7 +8269,7 @@
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F153" t="s">
         <v>574</v>
@@ -8278,7 +8281,7 @@
         <v>1151</v>
       </c>
       <c r="I153" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8292,7 +8295,7 @@
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F154" t="s">
         <v>575</v>
@@ -8304,7 +8307,7 @@
         <v>1151</v>
       </c>
       <c r="I154" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8318,7 +8321,7 @@
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F155" t="s">
         <v>576</v>
@@ -8327,10 +8330,10 @@
         <v>859</v>
       </c>
       <c r="H155" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I155" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8344,7 +8347,7 @@
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F156" t="s">
         <v>577</v>
@@ -8353,10 +8356,10 @@
         <v>962</v>
       </c>
       <c r="H156" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I156" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8370,7 +8373,7 @@
         <v>161</v>
       </c>
       <c r="E157" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F157" t="s">
         <v>578</v>
@@ -8379,10 +8382,10 @@
         <v>929</v>
       </c>
       <c r="H157" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="I157" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8396,7 +8399,7 @@
         <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F158" t="s">
         <v>579</v>
@@ -8405,10 +8408,10 @@
         <v>963</v>
       </c>
       <c r="H158" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I158" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8422,7 +8425,7 @@
         <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F159" t="s">
         <v>580</v>
@@ -8431,10 +8434,10 @@
         <v>964</v>
       </c>
       <c r="H159" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I159" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8448,7 +8451,7 @@
         <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F160" t="s">
         <v>581</v>
@@ -8457,10 +8460,10 @@
         <v>859</v>
       </c>
       <c r="H160" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I160" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8474,7 +8477,7 @@
         <v>165</v>
       </c>
       <c r="E161" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F161" t="s">
         <v>582</v>
@@ -8483,10 +8486,10 @@
         <v>965</v>
       </c>
       <c r="H161" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I161" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8500,7 +8503,7 @@
         <v>166</v>
       </c>
       <c r="E162" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F162" t="s">
         <v>583</v>
@@ -8509,10 +8512,10 @@
         <v>909</v>
       </c>
       <c r="H162" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="I162" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8526,7 +8529,7 @@
         <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F163" t="s">
         <v>584</v>
@@ -8535,10 +8538,10 @@
         <v>893</v>
       </c>
       <c r="H163" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="I163" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8552,7 +8555,7 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F164" t="s">
         <v>585</v>
@@ -8561,10 +8564,10 @@
         <v>966</v>
       </c>
       <c r="H164" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I164" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8578,7 +8581,7 @@
         <v>169</v>
       </c>
       <c r="E165" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F165" t="s">
         <v>586</v>
@@ -8587,10 +8590,10 @@
         <v>967</v>
       </c>
       <c r="H165" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I165" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8604,7 +8607,7 @@
         <v>170</v>
       </c>
       <c r="E166" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F166" t="s">
         <v>587</v>
@@ -8612,11 +8615,11 @@
       <c r="G166" t="s">
         <v>951</v>
       </c>
-      <c r="H166" t="s">
-        <v>1245</v>
+      <c r="H166" s="1" t="s">
+        <v>1281</v>
       </c>
       <c r="I166" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8630,7 +8633,7 @@
         <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F167" t="s">
         <v>588</v>
@@ -8638,11 +8641,11 @@
       <c r="G167" t="s">
         <v>958</v>
       </c>
-      <c r="H167" t="s">
-        <v>1245</v>
+      <c r="H167" s="1" t="s">
+        <v>1281</v>
       </c>
       <c r="I167" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8656,7 +8659,7 @@
         <v>172</v>
       </c>
       <c r="E168" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F168" t="s">
         <v>589</v>
@@ -8665,10 +8668,10 @@
         <v>968</v>
       </c>
       <c r="H168" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="I168" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8682,7 +8685,7 @@
         <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F169" t="s">
         <v>590</v>
@@ -8691,10 +8694,10 @@
         <v>969</v>
       </c>
       <c r="H169" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I169" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8708,7 +8711,7 @@
         <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F170" t="s">
         <v>591</v>
@@ -8717,10 +8720,10 @@
         <v>970</v>
       </c>
       <c r="H170" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I170" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8734,7 +8737,7 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F171" t="s">
         <v>592</v>
@@ -8743,10 +8746,10 @@
         <v>894</v>
       </c>
       <c r="H171" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="I171" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8760,7 +8763,7 @@
         <v>176</v>
       </c>
       <c r="E172" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F172" t="s">
         <v>593</v>
@@ -8769,10 +8772,10 @@
         <v>971</v>
       </c>
       <c r="H172" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I172" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8786,7 +8789,7 @@
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F173" t="s">
         <v>594</v>
@@ -8795,10 +8798,10 @@
         <v>849</v>
       </c>
       <c r="H173" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I173" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8812,7 +8815,7 @@
         <v>178</v>
       </c>
       <c r="E174" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F174" t="s">
         <v>595</v>
@@ -8821,10 +8824,10 @@
         <v>929</v>
       </c>
       <c r="H174" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I174" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8838,7 +8841,7 @@
         <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F175" t="s">
         <v>596</v>
@@ -8847,10 +8850,10 @@
         <v>897</v>
       </c>
       <c r="H175" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I175" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8864,7 +8867,7 @@
         <v>180</v>
       </c>
       <c r="E176" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F176" t="s">
         <v>597</v>
@@ -8873,10 +8876,10 @@
         <v>972</v>
       </c>
       <c r="H176" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I176" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8890,7 +8893,7 @@
         <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F177" t="s">
         <v>598</v>
@@ -8899,10 +8902,10 @@
         <v>918</v>
       </c>
       <c r="H177" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I177" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8916,7 +8919,7 @@
         <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F178" t="s">
         <v>599</v>
@@ -8925,10 +8928,10 @@
         <v>973</v>
       </c>
       <c r="H178" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I178" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8942,7 +8945,7 @@
         <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F179" t="s">
         <v>600</v>
@@ -8951,10 +8954,10 @@
         <v>974</v>
       </c>
       <c r="H179" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="I179" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8968,7 +8971,7 @@
         <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F180" t="s">
         <v>601</v>
@@ -8977,10 +8980,10 @@
         <v>975</v>
       </c>
       <c r="H180" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="I180" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8994,7 +8997,7 @@
         <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F181" t="s">
         <v>602</v>
@@ -9003,10 +9006,10 @@
         <v>976</v>
       </c>
       <c r="H181" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="I181" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -9020,7 +9023,7 @@
         <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F182" t="s">
         <v>603</v>
@@ -9029,10 +9032,10 @@
         <v>977</v>
       </c>
       <c r="H182" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="I182" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -9046,7 +9049,7 @@
         <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F183" t="s">
         <v>604</v>
@@ -9055,10 +9058,10 @@
         <v>978</v>
       </c>
       <c r="H183" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I183" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -9072,7 +9075,7 @@
         <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F184" t="s">
         <v>605</v>
@@ -9081,10 +9084,10 @@
         <v>979</v>
       </c>
       <c r="H184" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I184" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -9098,7 +9101,7 @@
         <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F185" t="s">
         <v>606</v>
@@ -9107,10 +9110,10 @@
         <v>901</v>
       </c>
       <c r="H185" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I185" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -9124,7 +9127,7 @@
         <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F186" t="s">
         <v>607</v>
@@ -9133,10 +9136,10 @@
         <v>878</v>
       </c>
       <c r="H186" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I186" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -9150,7 +9153,7 @@
         <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F187" t="s">
         <v>608</v>
@@ -9159,10 +9162,10 @@
         <v>980</v>
       </c>
       <c r="H187" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I187" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -9176,7 +9179,7 @@
         <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F188" t="s">
         <v>609</v>
@@ -9185,10 +9188,10 @@
         <v>981</v>
       </c>
       <c r="H188" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I188" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -9202,7 +9205,7 @@
         <v>193</v>
       </c>
       <c r="E189" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F189" t="s">
         <v>610</v>
@@ -9211,10 +9214,10 @@
         <v>982</v>
       </c>
       <c r="H189" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="I189" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -9228,7 +9231,7 @@
         <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F190" t="s">
         <v>611</v>
@@ -9237,10 +9240,10 @@
         <v>983</v>
       </c>
       <c r="H190" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="I190" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -9254,7 +9257,7 @@
         <v>195</v>
       </c>
       <c r="E191" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F191" t="s">
         <v>612</v>
@@ -9263,10 +9266,10 @@
         <v>984</v>
       </c>
       <c r="H191" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="I191" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -9280,7 +9283,7 @@
         <v>196</v>
       </c>
       <c r="E192" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F192" t="s">
         <v>613</v>
@@ -9289,13 +9292,13 @@
         <v>985</v>
       </c>
       <c r="H192" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I192" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J192" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9309,7 +9312,7 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F193" t="s">
         <v>614</v>
@@ -9318,13 +9321,13 @@
         <v>986</v>
       </c>
       <c r="H193" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I193" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J193" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9338,7 +9341,7 @@
         <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F194" t="s">
         <v>615</v>
@@ -9347,13 +9350,13 @@
         <v>987</v>
       </c>
       <c r="H194" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I194" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J194" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9367,7 +9370,7 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F195" t="s">
         <v>616</v>
@@ -9376,13 +9379,13 @@
         <v>918</v>
       </c>
       <c r="H195" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="I195" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J195" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9396,7 +9399,7 @@
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F196" t="s">
         <v>617</v>
@@ -9405,10 +9408,10 @@
         <v>988</v>
       </c>
       <c r="H196" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I196" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9422,7 +9425,7 @@
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F197" t="s">
         <v>618</v>
@@ -9431,10 +9434,10 @@
         <v>989</v>
       </c>
       <c r="H197" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I197" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9448,7 +9451,7 @@
         <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F198" t="s">
         <v>619</v>
@@ -9457,10 +9460,10 @@
         <v>990</v>
       </c>
       <c r="H198" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="I198" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9474,7 +9477,7 @@
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F199" t="s">
         <v>620</v>
@@ -9483,10 +9486,10 @@
         <v>991</v>
       </c>
       <c r="H199" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I199" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9500,7 +9503,7 @@
         <v>204</v>
       </c>
       <c r="E200" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F200" t="s">
         <v>621</v>
@@ -9509,10 +9512,10 @@
         <v>992</v>
       </c>
       <c r="H200" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I200" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9526,7 +9529,7 @@
         <v>205</v>
       </c>
       <c r="E201" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F201" t="s">
         <v>622</v>
@@ -9535,10 +9538,10 @@
         <v>934</v>
       </c>
       <c r="H201" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="I201" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9552,7 +9555,7 @@
         <v>206</v>
       </c>
       <c r="E202" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F202" t="s">
         <v>623</v>
@@ -9561,10 +9564,10 @@
         <v>993</v>
       </c>
       <c r="H202" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I202" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9578,7 +9581,7 @@
         <v>207</v>
       </c>
       <c r="E203" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F203" t="s">
         <v>624</v>
@@ -9587,10 +9590,10 @@
         <v>994</v>
       </c>
       <c r="H203" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I203" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9604,7 +9607,7 @@
         <v>208</v>
       </c>
       <c r="E204" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F204" t="s">
         <v>625</v>
@@ -9613,10 +9616,10 @@
         <v>995</v>
       </c>
       <c r="H204" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I204" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9630,7 +9633,7 @@
         <v>209</v>
       </c>
       <c r="E205" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F205" t="s">
         <v>626</v>
@@ -9639,10 +9642,10 @@
         <v>996</v>
       </c>
       <c r="H205" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I205" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9656,7 +9659,7 @@
         <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F206" t="s">
         <v>627</v>
@@ -9665,10 +9668,10 @@
         <v>997</v>
       </c>
       <c r="H206" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I206" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9682,7 +9685,7 @@
         <v>211</v>
       </c>
       <c r="E207" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F207" t="s">
         <v>628</v>
@@ -9691,10 +9694,10 @@
         <v>998</v>
       </c>
       <c r="H207" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I207" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9708,7 +9711,7 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F208" t="s">
         <v>629</v>
@@ -9717,10 +9720,10 @@
         <v>999</v>
       </c>
       <c r="H208" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I208" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9734,7 +9737,7 @@
         <v>213</v>
       </c>
       <c r="E209" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F209" t="s">
         <v>630</v>
@@ -9743,10 +9746,10 @@
         <v>1000</v>
       </c>
       <c r="H209" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I209" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9760,7 +9763,7 @@
         <v>214</v>
       </c>
       <c r="E210" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F210" t="s">
         <v>631</v>
@@ -9769,10 +9772,10 @@
         <v>1001</v>
       </c>
       <c r="H210" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I210" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9786,7 +9789,7 @@
         <v>215</v>
       </c>
       <c r="E211" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F211" t="s">
         <v>632</v>
@@ -9795,10 +9798,10 @@
         <v>1002</v>
       </c>
       <c r="H211" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I211" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9812,7 +9815,7 @@
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F212" t="s">
         <v>633</v>
@@ -9821,10 +9824,10 @@
         <v>1003</v>
       </c>
       <c r="H212" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I212" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9838,7 +9841,7 @@
         <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F213" t="s">
         <v>634</v>
@@ -9847,10 +9850,10 @@
         <v>859</v>
       </c>
       <c r="H213" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I213" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9864,7 +9867,7 @@
         <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F214" t="s">
         <v>635</v>
@@ -9873,10 +9876,10 @@
         <v>1004</v>
       </c>
       <c r="H214" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I214" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9890,7 +9893,7 @@
         <v>219</v>
       </c>
       <c r="E215" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F215" t="s">
         <v>636</v>
@@ -9899,10 +9902,10 @@
         <v>977</v>
       </c>
       <c r="H215" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I215" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9916,7 +9919,7 @@
         <v>220</v>
       </c>
       <c r="E216" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F216" t="s">
         <v>637</v>
@@ -9925,10 +9928,10 @@
         <v>1005</v>
       </c>
       <c r="H216" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I216" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9942,7 +9945,7 @@
         <v>221</v>
       </c>
       <c r="E217" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F217" t="s">
         <v>638</v>
@@ -9951,10 +9954,10 @@
         <v>1005</v>
       </c>
       <c r="H217" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I217" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9968,7 +9971,7 @@
         <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F218" t="s">
         <v>639</v>
@@ -9977,10 +9980,10 @@
         <v>1006</v>
       </c>
       <c r="H218" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I218" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9994,7 +9997,7 @@
         <v>223</v>
       </c>
       <c r="E219" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F219" t="s">
         <v>640</v>
@@ -10003,10 +10006,10 @@
         <v>1007</v>
       </c>
       <c r="H219" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I219" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10020,7 +10023,7 @@
         <v>224</v>
       </c>
       <c r="E220" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F220" t="s">
         <v>641</v>
@@ -10029,10 +10032,10 @@
         <v>913</v>
       </c>
       <c r="H220" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I220" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10046,7 +10049,7 @@
         <v>225</v>
       </c>
       <c r="E221" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F221" t="s">
         <v>642</v>
@@ -10055,10 +10058,10 @@
         <v>1008</v>
       </c>
       <c r="H221" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I221" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10072,7 +10075,7 @@
         <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F222" t="s">
         <v>643</v>
@@ -10081,10 +10084,10 @@
         <v>1009</v>
       </c>
       <c r="H222" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I222" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10098,7 +10101,7 @@
         <v>227</v>
       </c>
       <c r="E223" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F223" t="s">
         <v>644</v>
@@ -10110,7 +10113,7 @@
         <v>1132</v>
       </c>
       <c r="I223" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10124,7 +10127,7 @@
         <v>228</v>
       </c>
       <c r="E224" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F224" t="s">
         <v>645</v>
@@ -10136,7 +10139,7 @@
         <v>1132</v>
       </c>
       <c r="I224" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10150,7 +10153,7 @@
         <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F225" t="s">
         <v>646</v>
@@ -10162,7 +10165,7 @@
         <v>1132</v>
       </c>
       <c r="I225" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10176,7 +10179,7 @@
         <v>230</v>
       </c>
       <c r="E226" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F226" t="s">
         <v>647</v>
@@ -10185,10 +10188,10 @@
         <v>1012</v>
       </c>
       <c r="H226" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="I226" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10202,7 +10205,7 @@
         <v>231</v>
       </c>
       <c r="E227" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F227" t="s">
         <v>648</v>
@@ -10214,7 +10217,7 @@
         <v>1132</v>
       </c>
       <c r="I227" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10228,7 +10231,7 @@
         <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F228" t="s">
         <v>649</v>
@@ -10237,10 +10240,10 @@
         <v>1014</v>
       </c>
       <c r="H228" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I228" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10254,7 +10257,7 @@
         <v>233</v>
       </c>
       <c r="E229" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F229" t="s">
         <v>650</v>
@@ -10263,10 +10266,10 @@
         <v>1015</v>
       </c>
       <c r="H229" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="I229" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10280,7 +10283,7 @@
         <v>234</v>
       </c>
       <c r="E230" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F230" t="s">
         <v>651</v>
@@ -10289,10 +10292,10 @@
         <v>889</v>
       </c>
       <c r="H230" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="I230" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10306,7 +10309,7 @@
         <v>235</v>
       </c>
       <c r="E231" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F231" t="s">
         <v>652</v>
@@ -10315,10 +10318,10 @@
         <v>899</v>
       </c>
       <c r="H231" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I231" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10332,7 +10335,7 @@
         <v>236</v>
       </c>
       <c r="E232" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F232" t="s">
         <v>653</v>
@@ -10341,10 +10344,10 @@
         <v>901</v>
       </c>
       <c r="H232" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I232" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10358,7 +10361,7 @@
         <v>237</v>
       </c>
       <c r="E233" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F233" t="s">
         <v>654</v>
@@ -10367,10 +10370,10 @@
         <v>1016</v>
       </c>
       <c r="H233" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="I233" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10384,7 +10387,7 @@
         <v>238</v>
       </c>
       <c r="E234" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F234" t="s">
         <v>655</v>
@@ -10393,10 +10396,10 @@
         <v>1017</v>
       </c>
       <c r="H234" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I234" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10410,7 +10413,7 @@
         <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F235" t="s">
         <v>656</v>
@@ -10419,10 +10422,10 @@
         <v>1018</v>
       </c>
       <c r="H235" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I235" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10436,7 +10439,7 @@
         <v>240</v>
       </c>
       <c r="E236" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F236" t="s">
         <v>657</v>
@@ -10445,10 +10448,10 @@
         <v>1019</v>
       </c>
       <c r="H236" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I236" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10462,7 +10465,7 @@
         <v>241</v>
       </c>
       <c r="E237" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F237" t="s">
         <v>658</v>
@@ -10471,10 +10474,10 @@
         <v>1020</v>
       </c>
       <c r="H237" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I237" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10488,7 +10491,7 @@
         <v>242</v>
       </c>
       <c r="E238" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F238" t="s">
         <v>659</v>
@@ -10497,10 +10500,10 @@
         <v>1021</v>
       </c>
       <c r="H238" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I238" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -10514,7 +10517,7 @@
         <v>243</v>
       </c>
       <c r="E239" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F239" t="s">
         <v>660</v>
@@ -10523,10 +10526,10 @@
         <v>1022</v>
       </c>
       <c r="H239" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I239" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -10540,7 +10543,7 @@
         <v>244</v>
       </c>
       <c r="E240" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F240" t="s">
         <v>661</v>
@@ -10552,7 +10555,7 @@
         <v>1117</v>
       </c>
       <c r="I240" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10566,7 +10569,7 @@
         <v>245</v>
       </c>
       <c r="E241" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F241" t="s">
         <v>662</v>
@@ -10575,13 +10578,13 @@
         <v>1023</v>
       </c>
       <c r="H241" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I241" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J241" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10595,7 +10598,7 @@
         <v>246</v>
       </c>
       <c r="E242" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F242" t="s">
         <v>663</v>
@@ -10604,13 +10607,13 @@
         <v>900</v>
       </c>
       <c r="H242" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I242" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J242" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10624,7 +10627,7 @@
         <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F243" t="s">
         <v>664</v>
@@ -10633,13 +10636,13 @@
         <v>1024</v>
       </c>
       <c r="H243" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I243" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J243" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10653,7 +10656,7 @@
         <v>248</v>
       </c>
       <c r="E244" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F244" t="s">
         <v>665</v>
@@ -10662,10 +10665,10 @@
         <v>1025</v>
       </c>
       <c r="H244" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I244" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10679,7 +10682,7 @@
         <v>249</v>
       </c>
       <c r="E245" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F245" t="s">
         <v>666</v>
@@ -10688,10 +10691,10 @@
         <v>1025</v>
       </c>
       <c r="H245" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I245" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10705,7 +10708,7 @@
         <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F246" t="s">
         <v>667</v>
@@ -10714,13 +10717,13 @@
         <v>1026</v>
       </c>
       <c r="H246" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I246" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J246" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10734,7 +10737,7 @@
         <v>251</v>
       </c>
       <c r="E247" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F247" t="s">
         <v>668</v>
@@ -10743,10 +10746,10 @@
         <v>1005</v>
       </c>
       <c r="H247" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I247" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10760,7 +10763,7 @@
         <v>252</v>
       </c>
       <c r="E248" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F248" t="s">
         <v>669</v>
@@ -10769,10 +10772,10 @@
         <v>1027</v>
       </c>
       <c r="H248" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I248" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -10786,7 +10789,7 @@
         <v>253</v>
       </c>
       <c r="E249" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F249" t="s">
         <v>670</v>
@@ -10795,10 +10798,10 @@
         <v>1028</v>
       </c>
       <c r="H249" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="I249" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -10812,7 +10815,7 @@
         <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F250" t="s">
         <v>671</v>
@@ -10821,10 +10824,10 @@
         <v>1029</v>
       </c>
       <c r="H250" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="I250" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -10838,7 +10841,7 @@
         <v>255</v>
       </c>
       <c r="E251" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F251" t="s">
         <v>672</v>
@@ -10847,10 +10850,10 @@
         <v>1030</v>
       </c>
       <c r="H251" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="I251" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -10864,7 +10867,7 @@
         <v>256</v>
       </c>
       <c r="E252" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F252" t="s">
         <v>673</v>
@@ -10873,10 +10876,10 @@
         <v>859</v>
       </c>
       <c r="H252" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I252" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -10890,7 +10893,7 @@
         <v>257</v>
       </c>
       <c r="E253" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F253" t="s">
         <v>674</v>
@@ -10899,10 +10902,10 @@
         <v>1031</v>
       </c>
       <c r="H253" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="I253" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -10916,7 +10919,7 @@
         <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F254" t="s">
         <v>675</v>
@@ -10925,10 +10928,10 @@
         <v>1032</v>
       </c>
       <c r="H254" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="I254" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -10942,7 +10945,7 @@
         <v>259</v>
       </c>
       <c r="E255" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F255" t="s">
         <v>676</v>
@@ -10951,10 +10954,10 @@
         <v>1033</v>
       </c>
       <c r="H255" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="I255" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -10968,7 +10971,7 @@
         <v>260</v>
       </c>
       <c r="E256" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F256" t="s">
         <v>677</v>
@@ -10977,10 +10980,10 @@
         <v>1034</v>
       </c>
       <c r="H256" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I256" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -10994,7 +10997,7 @@
         <v>261</v>
       </c>
       <c r="E257" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F257" t="s">
         <v>678</v>
@@ -11003,10 +11006,10 @@
         <v>1035</v>
       </c>
       <c r="H257" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I257" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -11020,7 +11023,7 @@
         <v>262</v>
       </c>
       <c r="E258" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F258" t="s">
         <v>679</v>
@@ -11029,10 +11032,10 @@
         <v>1036</v>
       </c>
       <c r="H258" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I258" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -11046,7 +11049,7 @@
         <v>263</v>
       </c>
       <c r="E259" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F259" t="s">
         <v>680</v>
@@ -11055,10 +11058,10 @@
         <v>1037</v>
       </c>
       <c r="H259" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I259" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -11072,7 +11075,7 @@
         <v>264</v>
       </c>
       <c r="E260" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F260" t="s">
         <v>681</v>
@@ -11081,10 +11084,10 @@
         <v>1038</v>
       </c>
       <c r="H260" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="I260" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -11098,7 +11101,7 @@
         <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F261" t="s">
         <v>682</v>
@@ -11107,13 +11110,13 @@
         <v>1039</v>
       </c>
       <c r="H261" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I261" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J261" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -11127,7 +11130,7 @@
         <v>266</v>
       </c>
       <c r="E262" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F262" t="s">
         <v>683</v>
@@ -11139,7 +11142,7 @@
         <v>1134</v>
       </c>
       <c r="I262" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -11153,7 +11156,7 @@
         <v>267</v>
       </c>
       <c r="E263" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F263" t="s">
         <v>684</v>
@@ -11165,7 +11168,7 @@
         <v>1134</v>
       </c>
       <c r="I263" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -11179,7 +11182,7 @@
         <v>268</v>
       </c>
       <c r="E264" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F264" t="s">
         <v>685</v>
@@ -11191,7 +11194,7 @@
         <v>1134</v>
       </c>
       <c r="I264" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -11205,7 +11208,7 @@
         <v>269</v>
       </c>
       <c r="E265" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F265" t="s">
         <v>686</v>
@@ -11214,10 +11217,10 @@
         <v>1042</v>
       </c>
       <c r="H265" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="I265" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
@@ -11231,7 +11234,7 @@
         <v>270</v>
       </c>
       <c r="E266" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F266" t="s">
         <v>687</v>
@@ -11240,10 +11243,10 @@
         <v>929</v>
       </c>
       <c r="H266" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="I266" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -11257,7 +11260,7 @@
         <v>271</v>
       </c>
       <c r="E267" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F267" t="s">
         <v>688</v>
@@ -11266,10 +11269,10 @@
         <v>1043</v>
       </c>
       <c r="H267" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="I267" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -11283,7 +11286,7 @@
         <v>272</v>
       </c>
       <c r="E268" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F268" t="s">
         <v>689</v>
@@ -11292,10 +11295,10 @@
         <v>1044</v>
       </c>
       <c r="H268" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="I268" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -11309,7 +11312,7 @@
         <v>273</v>
       </c>
       <c r="E269" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F269" t="s">
         <v>690</v>
@@ -11318,10 +11321,10 @@
         <v>849</v>
       </c>
       <c r="H269" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="I269" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -11335,7 +11338,7 @@
         <v>274</v>
       </c>
       <c r="E270" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F270" t="s">
         <v>691</v>
@@ -11344,10 +11347,10 @@
         <v>1045</v>
       </c>
       <c r="H270" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I270" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -11361,7 +11364,7 @@
         <v>275</v>
       </c>
       <c r="E271" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F271" t="s">
         <v>692</v>
@@ -11370,10 +11373,10 @@
         <v>1046</v>
       </c>
       <c r="H271" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I271" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -11387,7 +11390,7 @@
         <v>276</v>
       </c>
       <c r="E272" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F272" t="s">
         <v>693</v>
@@ -11396,10 +11399,10 @@
         <v>900</v>
       </c>
       <c r="H272" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="I272" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11416,7 +11419,7 @@
         <v>277</v>
       </c>
       <c r="E273" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F273" t="s">
         <v>694</v>
@@ -11425,10 +11428,10 @@
         <v>1016</v>
       </c>
       <c r="H273" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I273" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11442,7 +11445,7 @@
         <v>278</v>
       </c>
       <c r="E274" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F274" t="s">
         <v>695</v>
@@ -11451,10 +11454,10 @@
         <v>885</v>
       </c>
       <c r="H274" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="I274" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11468,7 +11471,7 @@
         <v>279</v>
       </c>
       <c r="E275" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F275" t="s">
         <v>696</v>
@@ -11477,10 +11480,10 @@
         <v>1030</v>
       </c>
       <c r="H275" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="I275" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11494,7 +11497,7 @@
         <v>280</v>
       </c>
       <c r="E276" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F276" t="s">
         <v>697</v>
@@ -11503,10 +11506,10 @@
         <v>929</v>
       </c>
       <c r="H276" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I276" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11520,7 +11523,7 @@
         <v>281</v>
       </c>
       <c r="E277" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F277" t="s">
         <v>698</v>
@@ -11529,10 +11532,10 @@
         <v>1047</v>
       </c>
       <c r="H277" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="I277" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11546,7 +11549,7 @@
         <v>282</v>
       </c>
       <c r="E278" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F278" t="s">
         <v>699</v>
@@ -11555,10 +11558,10 @@
         <v>929</v>
       </c>
       <c r="H278" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="I278" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11572,7 +11575,7 @@
         <v>283</v>
       </c>
       <c r="E279" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F279" t="s">
         <v>700</v>
@@ -11581,10 +11584,10 @@
         <v>977</v>
       </c>
       <c r="H279" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I279" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11598,7 +11601,7 @@
         <v>284</v>
       </c>
       <c r="E280" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F280" t="s">
         <v>701</v>
@@ -11607,10 +11610,10 @@
         <v>1004</v>
       </c>
       <c r="H280" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I280" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11624,7 +11627,7 @@
         <v>285</v>
       </c>
       <c r="E281" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F281" t="s">
         <v>702</v>
@@ -11636,7 +11639,7 @@
         <v>1134</v>
       </c>
       <c r="I281" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11650,7 +11653,7 @@
         <v>286</v>
       </c>
       <c r="E282" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F282" t="s">
         <v>703</v>
@@ -11659,10 +11662,10 @@
         <v>1049</v>
       </c>
       <c r="H282" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="I282" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11676,7 +11679,7 @@
         <v>287</v>
       </c>
       <c r="E283" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F283" t="s">
         <v>704</v>
@@ -11685,10 +11688,10 @@
         <v>897</v>
       </c>
       <c r="H283" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="I283" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11702,7 +11705,7 @@
         <v>288</v>
       </c>
       <c r="E284" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F284" t="s">
         <v>705</v>
@@ -11711,10 +11714,10 @@
         <v>1050</v>
       </c>
       <c r="H284" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="I284" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11728,7 +11731,7 @@
         <v>289</v>
       </c>
       <c r="E285" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F285" t="s">
         <v>706</v>
@@ -11737,10 +11740,10 @@
         <v>947</v>
       </c>
       <c r="H285" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="I285" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11754,7 +11757,7 @@
         <v>290</v>
       </c>
       <c r="E286" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F286" t="s">
         <v>707</v>
@@ -11763,10 +11766,10 @@
         <v>1051</v>
       </c>
       <c r="H286" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I286" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11780,7 +11783,7 @@
         <v>291</v>
       </c>
       <c r="E287" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F287" t="s">
         <v>708</v>
@@ -11789,10 +11792,10 @@
         <v>1052</v>
       </c>
       <c r="H287" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I287" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11809,7 +11812,7 @@
         <v>292</v>
       </c>
       <c r="E288" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F288" t="s">
         <v>709</v>
@@ -11818,10 +11821,10 @@
         <v>1053</v>
       </c>
       <c r="H288" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I288" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11835,7 +11838,7 @@
         <v>293</v>
       </c>
       <c r="E289" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F289" t="s">
         <v>710</v>
@@ -11844,10 +11847,10 @@
         <v>937</v>
       </c>
       <c r="H289" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="I289" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11861,7 +11864,7 @@
         <v>294</v>
       </c>
       <c r="E290" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F290" t="s">
         <v>711</v>
@@ -11870,10 +11873,10 @@
         <v>900</v>
       </c>
       <c r="H290" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="I290" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11887,7 +11890,7 @@
         <v>295</v>
       </c>
       <c r="E291" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F291" t="s">
         <v>712</v>
@@ -11896,10 +11899,10 @@
         <v>909</v>
       </c>
       <c r="H291" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I291" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11913,7 +11916,7 @@
         <v>296</v>
       </c>
       <c r="E292" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F292" t="s">
         <v>713</v>
@@ -11922,10 +11925,10 @@
         <v>1054</v>
       </c>
       <c r="H292" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I292" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11939,7 +11942,7 @@
         <v>297</v>
       </c>
       <c r="E293" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F293" t="s">
         <v>714</v>
@@ -11948,10 +11951,10 @@
         <v>3</v>
       </c>
       <c r="H293" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I293" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11965,7 +11968,7 @@
         <v>298</v>
       </c>
       <c r="E294" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F294" t="s">
         <v>715</v>
@@ -11974,10 +11977,10 @@
         <v>907</v>
       </c>
       <c r="H294" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I294" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11991,7 +11994,7 @@
         <v>299</v>
       </c>
       <c r="E295" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F295" t="s">
         <v>716</v>
@@ -12000,10 +12003,10 @@
         <v>859</v>
       </c>
       <c r="H295" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I295" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12017,7 +12020,7 @@
         <v>300</v>
       </c>
       <c r="E296" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F296" t="s">
         <v>717</v>
@@ -12026,10 +12029,10 @@
         <v>1055</v>
       </c>
       <c r="H296" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I296" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12043,7 +12046,7 @@
         <v>301</v>
       </c>
       <c r="E297" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F297" t="s">
         <v>718</v>
@@ -12052,10 +12055,10 @@
         <v>1056</v>
       </c>
       <c r="H297" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I297" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12069,7 +12072,7 @@
         <v>302</v>
       </c>
       <c r="E298" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F298" t="s">
         <v>719</v>
@@ -12078,10 +12081,10 @@
         <v>1057</v>
       </c>
       <c r="H298" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I298" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12095,7 +12098,7 @@
         <v>303</v>
       </c>
       <c r="E299" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F299" t="s">
         <v>720</v>
@@ -12104,10 +12107,10 @@
         <v>1058</v>
       </c>
       <c r="H299" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I299" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12121,7 +12124,7 @@
         <v>304</v>
       </c>
       <c r="E300" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F300" t="s">
         <v>721</v>
@@ -12130,10 +12133,10 @@
         <v>1059</v>
       </c>
       <c r="H300" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I300" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12147,7 +12150,7 @@
         <v>305</v>
       </c>
       <c r="E301" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F301" t="s">
         <v>722</v>
@@ -12159,7 +12162,7 @@
         <v>1140</v>
       </c>
       <c r="I301" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12173,7 +12176,7 @@
         <v>306</v>
       </c>
       <c r="E302" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F302" t="s">
         <v>723</v>
@@ -12182,10 +12185,10 @@
         <v>1060</v>
       </c>
       <c r="H302" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I302" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12199,7 +12202,7 @@
         <v>307</v>
       </c>
       <c r="E303" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F303" t="s">
         <v>724</v>
@@ -12208,10 +12211,10 @@
         <v>1045</v>
       </c>
       <c r="H303" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I303" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12225,7 +12228,7 @@
         <v>308</v>
       </c>
       <c r="E304" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F304" t="s">
         <v>725</v>
@@ -12234,10 +12237,10 @@
         <v>1061</v>
       </c>
       <c r="H304" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I304" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12251,7 +12254,7 @@
         <v>309</v>
       </c>
       <c r="E305" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F305" t="s">
         <v>726</v>
@@ -12260,10 +12263,10 @@
         <v>906</v>
       </c>
       <c r="H305" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I305" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12277,7 +12280,7 @@
         <v>310</v>
       </c>
       <c r="E306" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F306" t="s">
         <v>727</v>
@@ -12286,10 +12289,10 @@
         <v>1030</v>
       </c>
       <c r="H306" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I306" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12303,7 +12306,7 @@
         <v>311</v>
       </c>
       <c r="E307" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F307" t="s">
         <v>728</v>
@@ -12312,10 +12315,10 @@
         <v>1062</v>
       </c>
       <c r="H307" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="I307" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12329,7 +12332,7 @@
         <v>312</v>
       </c>
       <c r="E308" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F308" t="s">
         <v>729</v>
@@ -12338,10 +12341,10 @@
         <v>1035</v>
       </c>
       <c r="H308" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I308" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12355,7 +12358,7 @@
         <v>313</v>
       </c>
       <c r="E309" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F309" t="s">
         <v>730</v>
@@ -12364,10 +12367,10 @@
         <v>1032</v>
       </c>
       <c r="H309" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I309" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12381,7 +12384,7 @@
         <v>314</v>
       </c>
       <c r="E310" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F310" t="s">
         <v>731</v>
@@ -12390,10 +12393,10 @@
         <v>854</v>
       </c>
       <c r="H310" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="I310" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12407,7 +12410,7 @@
         <v>315</v>
       </c>
       <c r="E311" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F311" t="s">
         <v>732</v>
@@ -12416,10 +12419,10 @@
         <v>843</v>
       </c>
       <c r="H311" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="I311" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12433,7 +12436,7 @@
         <v>316</v>
       </c>
       <c r="E312" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F312" t="s">
         <v>733</v>
@@ -12442,10 +12445,10 @@
         <v>1063</v>
       </c>
       <c r="H312" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I312" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12459,7 +12462,7 @@
         <v>317</v>
       </c>
       <c r="E313" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F313" t="s">
         <v>734</v>
@@ -12468,10 +12471,10 @@
         <v>1064</v>
       </c>
       <c r="H313" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="I313" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12485,7 +12488,7 @@
         <v>318</v>
       </c>
       <c r="E314" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F314" t="s">
         <v>735</v>
@@ -12494,10 +12497,10 @@
         <v>905</v>
       </c>
       <c r="H314" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="I314" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12514,7 +12517,7 @@
         <v>319</v>
       </c>
       <c r="E315" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F315" t="s">
         <v>736</v>
@@ -12523,10 +12526,10 @@
         <v>1016</v>
       </c>
       <c r="H315" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="I315" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12540,7 +12543,7 @@
         <v>320</v>
       </c>
       <c r="E316" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F316" t="s">
         <v>737</v>
@@ -12549,10 +12552,10 @@
         <v>859</v>
       </c>
       <c r="H316" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I316" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12566,7 +12569,7 @@
         <v>321</v>
       </c>
       <c r="E317" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F317" t="s">
         <v>738</v>
@@ -12575,10 +12578,10 @@
         <v>859</v>
       </c>
       <c r="H317" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I317" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12592,7 +12595,7 @@
         <v>322</v>
       </c>
       <c r="E318" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F318" t="s">
         <v>739</v>
@@ -12601,10 +12604,10 @@
         <v>1058</v>
       </c>
       <c r="H318" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="I318" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12618,7 +12621,7 @@
         <v>323</v>
       </c>
       <c r="E319" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F319" t="s">
         <v>740</v>
@@ -12627,10 +12630,10 @@
         <v>902</v>
       </c>
       <c r="H319" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="I319" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12644,7 +12647,7 @@
         <v>324</v>
       </c>
       <c r="E320" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F320" t="s">
         <v>741</v>
@@ -12653,10 +12656,10 @@
         <v>1065</v>
       </c>
       <c r="H320" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="I320" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12670,7 +12673,7 @@
         <v>325</v>
       </c>
       <c r="E321" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F321" t="s">
         <v>742</v>
@@ -12679,10 +12682,10 @@
         <v>1066</v>
       </c>
       <c r="H321" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I321" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12696,7 +12699,7 @@
         <v>326</v>
       </c>
       <c r="E322" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F322" t="s">
         <v>743</v>
@@ -12705,10 +12708,10 @@
         <v>1067</v>
       </c>
       <c r="H322" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="I322" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12722,7 +12725,7 @@
         <v>327</v>
       </c>
       <c r="E323" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F323" t="s">
         <v>744</v>
@@ -12731,10 +12734,10 @@
         <v>859</v>
       </c>
       <c r="H323" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I323" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12748,7 +12751,7 @@
         <v>328</v>
       </c>
       <c r="E324" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F324" t="s">
         <v>745</v>
@@ -12757,10 +12760,10 @@
         <v>901</v>
       </c>
       <c r="H324" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="I324" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12774,7 +12777,7 @@
         <v>329</v>
       </c>
       <c r="E325" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F325" t="s">
         <v>746</v>
@@ -12783,10 +12786,10 @@
         <v>929</v>
       </c>
       <c r="H325" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I325" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12800,7 +12803,7 @@
         <v>330</v>
       </c>
       <c r="E326" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F326" t="s">
         <v>747</v>
@@ -12809,10 +12812,10 @@
         <v>859</v>
       </c>
       <c r="H326" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I326" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12826,7 +12829,7 @@
         <v>331</v>
       </c>
       <c r="E327" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F327" t="s">
         <v>748</v>
@@ -12835,10 +12838,10 @@
         <v>1068</v>
       </c>
       <c r="H327" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I327" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12852,7 +12855,7 @@
         <v>332</v>
       </c>
       <c r="E328" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F328" t="s">
         <v>749</v>
@@ -12861,10 +12864,10 @@
         <v>1032</v>
       </c>
       <c r="H328" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="I328" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12878,7 +12881,7 @@
         <v>333</v>
       </c>
       <c r="E329" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F329" t="s">
         <v>750</v>
@@ -12887,10 +12890,10 @@
         <v>977</v>
       </c>
       <c r="H329" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I329" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12904,7 +12907,7 @@
         <v>334</v>
       </c>
       <c r="E330" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F330" t="s">
         <v>751</v>
@@ -12913,10 +12916,10 @@
         <v>1032</v>
       </c>
       <c r="H330" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I330" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12930,7 +12933,7 @@
         <v>335</v>
       </c>
       <c r="E331" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F331" t="s">
         <v>752</v>
@@ -12939,10 +12942,10 @@
         <v>901</v>
       </c>
       <c r="H331" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I331" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12956,7 +12959,7 @@
         <v>336</v>
       </c>
       <c r="E332" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F332" t="s">
         <v>753</v>
@@ -12965,10 +12968,10 @@
         <v>1069</v>
       </c>
       <c r="H332" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I332" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12982,7 +12985,7 @@
         <v>337</v>
       </c>
       <c r="E333" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F333" t="s">
         <v>754</v>
@@ -12991,10 +12994,10 @@
         <v>1070</v>
       </c>
       <c r="H333" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I333" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13008,7 +13011,7 @@
         <v>338</v>
       </c>
       <c r="E334" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F334" t="s">
         <v>755</v>
@@ -13017,10 +13020,10 @@
         <v>1060</v>
       </c>
       <c r="H334" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I334" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13034,7 +13037,7 @@
         <v>339</v>
       </c>
       <c r="E335" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F335" t="s">
         <v>756</v>
@@ -13043,10 +13046,10 @@
         <v>1071</v>
       </c>
       <c r="H335" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="I335" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13060,7 +13063,7 @@
         <v>340</v>
       </c>
       <c r="E336" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F336" t="s">
         <v>757</v>
@@ -13069,10 +13072,10 @@
         <v>1072</v>
       </c>
       <c r="H336" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I336" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13086,7 +13089,7 @@
         <v>341</v>
       </c>
       <c r="E337" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F337" t="s">
         <v>758</v>
@@ -13095,10 +13098,10 @@
         <v>1073</v>
       </c>
       <c r="H337" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I337" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13112,7 +13115,7 @@
         <v>342</v>
       </c>
       <c r="E338" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F338" t="s">
         <v>759</v>
@@ -13121,10 +13124,10 @@
         <v>1035</v>
       </c>
       <c r="H338" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I338" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13138,7 +13141,7 @@
         <v>343</v>
       </c>
       <c r="E339" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F339" t="s">
         <v>760</v>
@@ -13147,10 +13150,10 @@
         <v>1074</v>
       </c>
       <c r="H339" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I339" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13164,7 +13167,7 @@
         <v>344</v>
       </c>
       <c r="E340" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F340" t="s">
         <v>761</v>
@@ -13173,10 +13176,10 @@
         <v>1060</v>
       </c>
       <c r="H340" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I340" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13190,7 +13193,7 @@
         <v>345</v>
       </c>
       <c r="E341" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F341" t="s">
         <v>762</v>
@@ -13199,10 +13202,10 @@
         <v>1075</v>
       </c>
       <c r="H341" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I341" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13216,7 +13219,7 @@
         <v>346</v>
       </c>
       <c r="E342" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F342" t="s">
         <v>763</v>
@@ -13225,10 +13228,10 @@
         <v>908</v>
       </c>
       <c r="H342" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I342" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13245,7 +13248,7 @@
         <v>347</v>
       </c>
       <c r="E343" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F343" t="s">
         <v>764</v>
@@ -13254,10 +13257,10 @@
         <v>1076</v>
       </c>
       <c r="H343" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I343" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13274,7 +13277,7 @@
         <v>348</v>
       </c>
       <c r="E344" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F344" t="s">
         <v>765</v>
@@ -13283,10 +13286,10 @@
         <v>906</v>
       </c>
       <c r="H344" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I344" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13303,7 +13306,7 @@
         <v>349</v>
       </c>
       <c r="E345" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F345" t="s">
         <v>766</v>
@@ -13312,10 +13315,10 @@
         <v>1015</v>
       </c>
       <c r="H345" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I345" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13332,7 +13335,7 @@
         <v>350</v>
       </c>
       <c r="E346" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F346" t="s">
         <v>767</v>
@@ -13341,10 +13344,10 @@
         <v>1077</v>
       </c>
       <c r="H346" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I346" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13358,7 +13361,7 @@
         <v>351</v>
       </c>
       <c r="E347" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F347" t="s">
         <v>768</v>
@@ -13367,10 +13370,10 @@
         <v>1078</v>
       </c>
       <c r="H347" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I347" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13384,7 +13387,7 @@
         <v>352</v>
       </c>
       <c r="E348" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F348" t="s">
         <v>769</v>
@@ -13393,10 +13396,10 @@
         <v>918</v>
       </c>
       <c r="H348" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I348" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13410,7 +13413,7 @@
         <v>353</v>
       </c>
       <c r="E349" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F349" t="s">
         <v>770</v>
@@ -13419,10 +13422,10 @@
         <v>1079</v>
       </c>
       <c r="H349" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="I349" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13436,7 +13439,7 @@
         <v>354</v>
       </c>
       <c r="E350" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F350" t="s">
         <v>771</v>
@@ -13445,10 +13448,10 @@
         <v>894</v>
       </c>
       <c r="H350" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="I350" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13462,7 +13465,7 @@
         <v>355</v>
       </c>
       <c r="E351" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F351" t="s">
         <v>772</v>
@@ -13471,10 +13474,10 @@
         <v>929</v>
       </c>
       <c r="H351" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I351" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13488,7 +13491,7 @@
         <v>356</v>
       </c>
       <c r="E352" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F352" t="s">
         <v>773</v>
@@ -13497,10 +13500,10 @@
         <v>859</v>
       </c>
       <c r="H352" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="I352" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -13517,7 +13520,7 @@
         <v>357</v>
       </c>
       <c r="E353" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F353" t="s">
         <v>774</v>
@@ -13526,13 +13529,13 @@
         <v>1080</v>
       </c>
       <c r="H353" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I353" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J353" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -13546,7 +13549,7 @@
         <v>358</v>
       </c>
       <c r="E354" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F354" t="s">
         <v>775</v>
@@ -13555,13 +13558,13 @@
         <v>918</v>
       </c>
       <c r="H354" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I354" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J354" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -13575,7 +13578,7 @@
         <v>359</v>
       </c>
       <c r="E355" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F355" t="s">
         <v>776</v>
@@ -13584,13 +13587,13 @@
         <v>918</v>
       </c>
       <c r="H355" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I355" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J355" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -13604,7 +13607,7 @@
         <v>360</v>
       </c>
       <c r="E356" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F356" t="s">
         <v>777</v>
@@ -13613,13 +13616,13 @@
         <v>1081</v>
       </c>
       <c r="H356" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I356" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="J356" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -13633,7 +13636,7 @@
         <v>361</v>
       </c>
       <c r="E357" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F357" t="s">
         <v>778</v>
@@ -13642,10 +13645,10 @@
         <v>1082</v>
       </c>
       <c r="H357" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I357" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -13659,7 +13662,7 @@
         <v>362</v>
       </c>
       <c r="E358" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F358" t="s">
         <v>779</v>
@@ -13668,10 +13671,10 @@
         <v>1083</v>
       </c>
       <c r="H358" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I358" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -13685,7 +13688,7 @@
         <v>363</v>
       </c>
       <c r="E359" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F359" t="s">
         <v>780</v>
@@ -13694,10 +13697,10 @@
         <v>1084</v>
       </c>
       <c r="H359" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I359" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -13711,7 +13714,7 @@
         <v>364</v>
       </c>
       <c r="E360" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F360" t="s">
         <v>781</v>
@@ -13720,10 +13723,10 @@
         <v>1085</v>
       </c>
       <c r="H360" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I360" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -13737,7 +13740,7 @@
         <v>365</v>
       </c>
       <c r="E361" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F361" t="s">
         <v>782</v>
@@ -13746,10 +13749,10 @@
         <v>1086</v>
       </c>
       <c r="H361" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I361" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -13763,7 +13766,7 @@
         <v>366</v>
       </c>
       <c r="E362" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F362" t="s">
         <v>783</v>
@@ -13772,10 +13775,10 @@
         <v>1087</v>
       </c>
       <c r="H362" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I362" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -13789,7 +13792,7 @@
         <v>367</v>
       </c>
       <c r="E363" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F363" t="s">
         <v>784</v>
@@ -13798,10 +13801,10 @@
         <v>1088</v>
       </c>
       <c r="H363" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I363" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -13815,7 +13818,7 @@
         <v>368</v>
       </c>
       <c r="E364" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F364" t="s">
         <v>785</v>
@@ -13824,10 +13827,10 @@
         <v>859</v>
       </c>
       <c r="H364" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I364" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -13841,7 +13844,7 @@
         <v>369</v>
       </c>
       <c r="E365" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F365" t="s">
         <v>786</v>
@@ -13850,10 +13853,10 @@
         <v>1004</v>
       </c>
       <c r="H365" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I365" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -13867,7 +13870,7 @@
         <v>370</v>
       </c>
       <c r="E366" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F366" t="s">
         <v>787</v>
@@ -13876,10 +13879,10 @@
         <v>859</v>
       </c>
       <c r="H366" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I366" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -13893,7 +13896,7 @@
         <v>371</v>
       </c>
       <c r="E367" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F367" t="s">
         <v>788</v>
@@ -13902,10 +13905,10 @@
         <v>1004</v>
       </c>
       <c r="H367" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I367" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -13919,7 +13922,7 @@
         <v>372</v>
       </c>
       <c r="E368" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F368" t="s">
         <v>789</v>
@@ -13928,10 +13931,10 @@
         <v>1004</v>
       </c>
       <c r="H368" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I368" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -13945,7 +13948,7 @@
         <v>373</v>
       </c>
       <c r="E369" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F369" t="s">
         <v>790</v>
@@ -13954,10 +13957,10 @@
         <v>929</v>
       </c>
       <c r="H369" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I369" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -13971,7 +13974,7 @@
         <v>374</v>
       </c>
       <c r="E370" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F370" t="s">
         <v>791</v>
@@ -13980,10 +13983,10 @@
         <v>1060</v>
       </c>
       <c r="H370" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I370" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14000,7 +14003,7 @@
         <v>375</v>
       </c>
       <c r="E371" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F371" t="s">
         <v>792</v>
@@ -14009,10 +14012,10 @@
         <v>1089</v>
       </c>
       <c r="H371" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I371" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14029,7 +14032,7 @@
         <v>376</v>
       </c>
       <c r="E372" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F372" t="s">
         <v>793</v>
@@ -14038,10 +14041,10 @@
         <v>1090</v>
       </c>
       <c r="H372" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I372" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14058,7 +14061,7 @@
         <v>377</v>
       </c>
       <c r="E373" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F373" t="s">
         <v>794</v>
@@ -14067,10 +14070,10 @@
         <v>1091</v>
       </c>
       <c r="H373" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I373" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14087,7 +14090,7 @@
         <v>378</v>
       </c>
       <c r="E374" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F374" t="s">
         <v>795</v>
@@ -14096,10 +14099,10 @@
         <v>1092</v>
       </c>
       <c r="H374" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I374" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14116,7 +14119,7 @@
         <v>379</v>
       </c>
       <c r="E375" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F375" t="s">
         <v>796</v>
@@ -14125,10 +14128,10 @@
         <v>1093</v>
       </c>
       <c r="H375" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I375" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14145,7 +14148,7 @@
         <v>380</v>
       </c>
       <c r="E376" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F376" t="s">
         <v>797</v>
@@ -14154,10 +14157,10 @@
         <v>1094</v>
       </c>
       <c r="H376" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I376" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14174,7 +14177,7 @@
         <v>381</v>
       </c>
       <c r="E377" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F377" t="s">
         <v>798</v>
@@ -14183,10 +14186,10 @@
         <v>918</v>
       </c>
       <c r="H377" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I377" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14203,7 +14206,7 @@
         <v>382</v>
       </c>
       <c r="E378" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F378" t="s">
         <v>799</v>
@@ -14212,10 +14215,10 @@
         <v>1095</v>
       </c>
       <c r="H378" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I378" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14229,7 +14232,7 @@
         <v>383</v>
       </c>
       <c r="E379" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F379" t="s">
         <v>800</v>
@@ -14238,10 +14241,10 @@
         <v>1004</v>
       </c>
       <c r="H379" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I379" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14255,7 +14258,7 @@
         <v>384</v>
       </c>
       <c r="E380" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F380" t="s">
         <v>801</v>
@@ -14264,10 +14267,10 @@
         <v>859</v>
       </c>
       <c r="H380" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I380" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14281,7 +14284,7 @@
         <v>385</v>
       </c>
       <c r="E381" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F381" t="s">
         <v>802</v>
@@ -14290,10 +14293,10 @@
         <v>859</v>
       </c>
       <c r="H381" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I381" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14307,7 +14310,7 @@
         <v>386</v>
       </c>
       <c r="E382" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F382" t="s">
         <v>803</v>
@@ -14316,10 +14319,10 @@
         <v>929</v>
       </c>
       <c r="H382" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I382" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14333,7 +14336,7 @@
         <v>387</v>
       </c>
       <c r="E383" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F383" t="s">
         <v>804</v>
@@ -14342,10 +14345,10 @@
         <v>859</v>
       </c>
       <c r="H383" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I383" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14359,7 +14362,7 @@
         <v>388</v>
       </c>
       <c r="E384" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F384" t="s">
         <v>805</v>
@@ -14368,10 +14371,10 @@
         <v>1096</v>
       </c>
       <c r="H384" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I384" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14385,7 +14388,7 @@
         <v>389</v>
       </c>
       <c r="E385" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F385" t="s">
         <v>806</v>
@@ -14394,10 +14397,10 @@
         <v>859</v>
       </c>
       <c r="H385" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I385" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14411,7 +14414,7 @@
         <v>390</v>
       </c>
       <c r="E386" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F386" t="s">
         <v>807</v>
@@ -14420,10 +14423,10 @@
         <v>929</v>
       </c>
       <c r="H386" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I386" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14437,7 +14440,7 @@
         <v>391</v>
       </c>
       <c r="E387" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F387" t="s">
         <v>808</v>
@@ -14446,10 +14449,10 @@
         <v>1097</v>
       </c>
       <c r="H387" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I387" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14463,7 +14466,7 @@
         <v>392</v>
       </c>
       <c r="E388" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F388" t="s">
         <v>809</v>
@@ -14475,7 +14478,7 @@
         <v>1131</v>
       </c>
       <c r="I388" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14489,7 +14492,7 @@
         <v>393</v>
       </c>
       <c r="E389" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F389" t="s">
         <v>810</v>
@@ -14501,7 +14504,7 @@
         <v>1131</v>
       </c>
       <c r="I389" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14515,7 +14518,7 @@
         <v>391</v>
       </c>
       <c r="E390" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F390" t="s">
         <v>811</v>
@@ -14527,7 +14530,7 @@
         <v>1131</v>
       </c>
       <c r="I390" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14541,7 +14544,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F391" t="s">
         <v>504</v>
@@ -14553,7 +14556,7 @@
         <v>1131</v>
       </c>
       <c r="I391" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14567,7 +14570,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F392" t="s">
         <v>812</v>
@@ -14576,10 +14579,10 @@
         <v>929</v>
       </c>
       <c r="H392" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="I392" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -14593,7 +14596,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F393" t="s">
         <v>813</v>
@@ -14602,10 +14605,10 @@
         <v>1099</v>
       </c>
       <c r="H393" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I393" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -14619,7 +14622,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F394" t="s">
         <v>814</v>
@@ -14628,10 +14631,10 @@
         <v>1100</v>
       </c>
       <c r="H394" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I394" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -14645,7 +14648,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F395" t="s">
         <v>815</v>
@@ -14654,10 +14657,10 @@
         <v>1101</v>
       </c>
       <c r="H395" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I395" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -14671,7 +14674,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F396" t="s">
         <v>816</v>
@@ -14680,10 +14683,10 @@
         <v>1102</v>
       </c>
       <c r="H396" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I396" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -14697,7 +14700,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F397" t="s">
         <v>817</v>
@@ -14706,10 +14709,10 @@
         <v>1103</v>
       </c>
       <c r="H397" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I397" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -14723,7 +14726,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F398" t="s">
         <v>818</v>
@@ -14732,10 +14735,10 @@
         <v>1104</v>
       </c>
       <c r="H398" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="I398" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -14749,7 +14752,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F399" t="s">
         <v>819</v>
@@ -14758,10 +14761,10 @@
         <v>1105</v>
       </c>
       <c r="H399" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I399" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -14775,7 +14778,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F400" t="s">
         <v>820</v>
@@ -14784,10 +14787,10 @@
         <v>1106</v>
       </c>
       <c r="H400" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I400" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -14801,7 +14804,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F401" t="s">
         <v>821</v>
@@ -14810,10 +14813,10 @@
         <v>1107</v>
       </c>
       <c r="H401" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I401" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -14827,7 +14830,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F402" t="s">
         <v>822</v>
@@ -14836,10 +14839,10 @@
         <v>961</v>
       </c>
       <c r="H402" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I402" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -14853,7 +14856,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F403" t="s">
         <v>816</v>
@@ -14862,10 +14865,10 @@
         <v>1108</v>
       </c>
       <c r="H403" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I403" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -14879,7 +14882,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F404" t="s">
         <v>823</v>
@@ -14888,10 +14891,10 @@
         <v>929</v>
       </c>
       <c r="H404" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I404" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -14905,7 +14908,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F405" t="s">
         <v>824</v>
@@ -14914,10 +14917,10 @@
         <v>929</v>
       </c>
       <c r="H405" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I405" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -14931,7 +14934,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F406" t="s">
         <v>825</v>
@@ -14940,10 +14943,10 @@
         <v>929</v>
       </c>
       <c r="H406" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I406" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -14957,7 +14960,7 @@
         <v>401</v>
       </c>
       <c r="E407" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F407" t="s">
         <v>826</v>
@@ -14966,10 +14969,10 @@
         <v>1104</v>
       </c>
       <c r="H407" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I407" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -14983,7 +14986,7 @@
         <v>410</v>
       </c>
       <c r="E408" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F408" t="s">
         <v>827</v>
@@ -14992,10 +14995,10 @@
         <v>1109</v>
       </c>
       <c r="H408" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I408" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15009,7 +15012,7 @@
         <v>401</v>
       </c>
       <c r="E409" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F409" t="s">
         <v>818</v>
@@ -15018,10 +15021,10 @@
         <v>1104</v>
       </c>
       <c r="H409" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I409" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15038,7 +15041,7 @@
         <v>411</v>
       </c>
       <c r="E410" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F410" t="s">
         <v>828</v>
@@ -15047,10 +15050,10 @@
         <v>1110</v>
       </c>
       <c r="H410" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I410" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15064,7 +15067,7 @@
         <v>412</v>
       </c>
       <c r="E411" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F411" t="s">
         <v>829</v>
@@ -15073,10 +15076,10 @@
         <v>1111</v>
       </c>
       <c r="H411" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I411" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15090,7 +15093,7 @@
         <v>413</v>
       </c>
       <c r="E412" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F412" t="s">
         <v>830</v>
@@ -15099,10 +15102,10 @@
         <v>1112</v>
       </c>
       <c r="H412" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I412" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15116,7 +15119,7 @@
         <v>414</v>
       </c>
       <c r="E413" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F413" t="s">
         <v>831</v>
@@ -15125,10 +15128,10 @@
         <v>1113</v>
       </c>
       <c r="H413" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I413" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15142,7 +15145,7 @@
         <v>415</v>
       </c>
       <c r="E414" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F414" t="s">
         <v>832</v>
@@ -15151,10 +15154,10 @@
         <v>951</v>
       </c>
       <c r="H414" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I414" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15168,7 +15171,7 @@
         <v>416</v>
       </c>
       <c r="E415" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F415" t="s">
         <v>833</v>
@@ -15177,10 +15180,10 @@
         <v>859</v>
       </c>
       <c r="H415" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I415" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15194,7 +15197,7 @@
         <v>417</v>
       </c>
       <c r="E416" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F416" t="s">
         <v>834</v>
@@ -15203,10 +15206,10 @@
         <v>859</v>
       </c>
       <c r="H416" t="s">
-        <v>1224</v>
+        <v>1285</v>
       </c>
       <c r="I416" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15220,7 +15223,7 @@
         <v>418</v>
       </c>
       <c r="E417" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F417" t="s">
         <v>835</v>
@@ -15229,10 +15232,10 @@
         <v>929</v>
       </c>
       <c r="H417" t="s">
-        <v>1224</v>
+        <v>1285</v>
       </c>
       <c r="I417" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15246,7 +15249,7 @@
         <v>419</v>
       </c>
       <c r="E418" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F418" t="s">
         <v>836</v>
@@ -15255,10 +15258,10 @@
         <v>1032</v>
       </c>
       <c r="H418" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="I418" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15272,7 +15275,7 @@
         <v>420</v>
       </c>
       <c r="E419" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F419" t="s">
         <v>837</v>
@@ -15281,10 +15284,10 @@
         <v>929</v>
       </c>
       <c r="H419" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I419" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15298,7 +15301,7 @@
         <v>421</v>
       </c>
       <c r="E420" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F420" t="s">
         <v>838</v>
@@ -15307,10 +15310,10 @@
         <v>929</v>
       </c>
       <c r="H420" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I420" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15324,7 +15327,7 @@
         <v>422</v>
       </c>
       <c r="E421" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F421" t="s">
         <v>839</v>
@@ -15333,10 +15336,10 @@
         <v>1114</v>
       </c>
       <c r="H421" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I421" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15350,7 +15353,7 @@
         <v>423</v>
       </c>
       <c r="E422" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F422" t="s">
         <v>840</v>
@@ -15359,10 +15362,10 @@
         <v>859</v>
       </c>
       <c r="H422" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I422" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15376,7 +15379,7 @@
         <v>424</v>
       </c>
       <c r="E423" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F423" t="s">
         <v>841</v>
@@ -15385,10 +15388,10 @@
         <v>1115</v>
       </c>
       <c r="H423" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I423" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15402,7 +15405,7 @@
         <v>425</v>
       </c>
       <c r="E424" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F424" t="s">
         <v>842</v>
@@ -15411,10 +15414,10 @@
         <v>1116</v>
       </c>
       <c r="H424" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="I424" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
   </sheetData>
